--- a/data/trans_orig/P56$amigo-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P56$amigo-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5071</v>
+        <v>6045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04649779625187932</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2279298212216024</v>
+        <v>0.2717144994570298</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4856</v>
+        <v>5279</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01454106678694847</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06825423875674433</v>
+        <v>0.07420104255247</v>
       </c>
     </row>
     <row r="5">
@@ -820,19 +820,19 @@
         <v>3130</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>949</v>
+        <v>898</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8102</v>
+        <v>7683</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06401589895766399</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01941554193153492</v>
+        <v>0.01836905918239701</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1656999385369956</v>
+        <v>0.1571369949162498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -841,19 +841,19 @@
         <v>3130</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8535</v>
+        <v>8085</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04399646713067038</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0128726379079276</v>
+        <v>0.01285214602990418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1199637663120607</v>
+        <v>0.1136461191306062</v>
       </c>
     </row>
     <row r="6">
@@ -917,19 +917,19 @@
         <v>4673</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1801</v>
+        <v>1883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9462</v>
+        <v>9393</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2100263622164268</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0809560276095052</v>
+        <v>0.08465262913140439</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4252705362285392</v>
+        <v>0.4221752406728093</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -938,19 +938,19 @@
         <v>10206</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5158</v>
+        <v>5385</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16922</v>
+        <v>16715</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2087289063475846</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1054953516124681</v>
+        <v>0.1101420947101811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3460887590853319</v>
+        <v>0.3418456367015841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -959,19 +959,19 @@
         <v>14879</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8130</v>
+        <v>9101</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22456</v>
+        <v>23595</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2091346544466935</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1142733778255945</v>
+        <v>0.1279186144620518</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3156461803333722</v>
+        <v>0.3316448348205137</v>
       </c>
     </row>
     <row r="8">
@@ -988,19 +988,19 @@
         <v>6433</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2827</v>
+        <v>2795</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10905</v>
+        <v>10939</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2891486117944232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1270421260538808</v>
+        <v>0.1256264685644048</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4901250268941315</v>
+        <v>0.4916462962718936</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -1009,19 +1009,19 @@
         <v>20974</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14121</v>
+        <v>13493</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28638</v>
+        <v>27740</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4289694982868356</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2888082935036255</v>
+        <v>0.2759514294354529</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5857004237903455</v>
+        <v>0.567338925819597</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -1030,19 +1030,19 @@
         <v>27408</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19895</v>
+        <v>19630</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36681</v>
+        <v>36642</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3852438808901975</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2796397663407317</v>
+        <v>0.2759197531294219</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5155820440037235</v>
+        <v>0.5150446275716045</v>
       </c>
     </row>
     <row r="9">
@@ -1072,19 +1072,19 @@
         <v>4175</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1103</v>
+        <v>1203</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9709</v>
+        <v>10361</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08538247976510907</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02255600651821644</v>
+        <v>0.02459587985640364</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1985718585489699</v>
+        <v>0.2118982038440622</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1093,19 +1093,19 @@
         <v>4175</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1112</v>
+        <v>1197</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10142</v>
+        <v>9642</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05868116398716944</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01563714741298692</v>
+        <v>0.01682037364884049</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1425542135512257</v>
+        <v>0.1355253724163963</v>
       </c>
     </row>
     <row r="10">
@@ -1169,19 +1169,19 @@
         <v>10304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5790</v>
+        <v>5696</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14850</v>
+        <v>14903</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4631413909885834</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.260256911734845</v>
+        <v>0.2560213910000904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6674646434385113</v>
+        <v>0.6698385521319025</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1190,19 +1190,19 @@
         <v>6149</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2422</v>
+        <v>2044</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12553</v>
+        <v>11834</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1257677772090516</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04953804311692449</v>
+        <v>0.04180523598910178</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2567291940248503</v>
+        <v>0.2420272782091001</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1211,19 +1211,19 @@
         <v>16454</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10368</v>
+        <v>10026</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23898</v>
+        <v>23742</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2312732558676031</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1457323808754006</v>
+        <v>0.1409322234525502</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3359033139699054</v>
+        <v>0.3337221032294101</v>
       </c>
     </row>
     <row r="12">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3884</v>
+        <v>4427</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03768363500056647</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1745886069371954</v>
+        <v>0.1989709457712433</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1261,19 +1261,19 @@
         <v>5191</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2021</v>
+        <v>1993</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10749</v>
+        <v>10635</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1061745767416918</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04134049901302107</v>
+        <v>0.04076541340374921</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2198473778018342</v>
+        <v>0.2175103850913143</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -1282,19 +1282,19 @@
         <v>6030</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2063</v>
+        <v>2650</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11207</v>
+        <v>12185</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08475568297813099</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02900347503935192</v>
+        <v>0.03724911111870752</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1575217796486073</v>
+        <v>0.1712695132077793</v>
       </c>
     </row>
     <row r="13">
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5015</v>
+        <v>4538</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07338542157545205</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3557834274569782</v>
+        <v>0.3219349183226749</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5805</v>
+        <v>6134</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0477549584753816</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2482807567435977</v>
+        <v>0.2623864266997007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6291</v>
+        <v>7305</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05739596222518108</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1678626968415673</v>
+        <v>0.1949324879724545</v>
       </c>
     </row>
     <row r="15">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7361</v>
+        <v>8121</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09984629762997982</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3148748438997158</v>
+        <v>0.3473557439471925</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7315</v>
+        <v>7960</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06228870352425397</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1951938442318341</v>
+        <v>0.212405419336282</v>
       </c>
     </row>
     <row r="16">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5195</v>
+        <v>5149</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1217066347225644</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3685259281609893</v>
+        <v>0.3652710778777364</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1564,19 +1564,19 @@
         <v>3431</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8997</v>
+        <v>8764</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1467420457699926</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04806462881263329</v>
+        <v>0.04699574495972009</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3848478463148765</v>
+        <v>0.3748816074400082</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1585,19 +1585,19 @@
         <v>5146</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1979</v>
+        <v>2012</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10565</v>
+        <v>10978</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.137324873288807</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05280424488755109</v>
+        <v>0.05367560695533748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2819169156134768</v>
+        <v>0.2929222829429587</v>
       </c>
     </row>
     <row r="18">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5456</v>
+        <v>4682</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1333723377735511</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3870236309136331</v>
+        <v>0.3321213885519639</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1635,19 +1635,19 @@
         <v>6520</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2217</v>
+        <v>3020</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10953</v>
+        <v>11275</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2788688720448994</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09484016209186555</v>
+        <v>0.1291770645049928</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4684873768890699</v>
+        <v>0.4822702815444649</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -1656,19 +1656,19 @@
         <v>8400</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4225</v>
+        <v>4170</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14289</v>
+        <v>14001</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2241397543143251</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1127387652074721</v>
+        <v>0.1112649246732279</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3812797925641751</v>
+        <v>0.3736103640771161</v>
       </c>
     </row>
     <row r="19">
@@ -1685,19 +1685,19 @@
         <v>2600</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6202</v>
+        <v>6264</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1844063524718422</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05797647617380981</v>
+        <v>0.05742912665523958</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4399667306942453</v>
+        <v>0.4443828580441133</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1706,19 +1706,19 @@
         <v>4730</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1180</v>
+        <v>2205</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10044</v>
+        <v>10277</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2023360141259693</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05048817466174371</v>
+        <v>0.09433577730683207</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.429595416768336</v>
+        <v>0.4395704790064343</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1727,19 +1727,19 @@
         <v>7330</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3082</v>
+        <v>3222</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12844</v>
+        <v>13038</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1955916984042764</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0822374741606572</v>
+        <v>0.08598157292232547</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3427308724665881</v>
+        <v>0.3479031209573169</v>
       </c>
     </row>
     <row r="20">
@@ -1803,19 +1803,19 @@
         <v>5191</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2476</v>
+        <v>1794</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8775</v>
+        <v>8720</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3681999543061896</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1756604128542834</v>
+        <v>0.1272293920614839</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6224897427774839</v>
+        <v>0.6185922708275016</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5895</v>
+        <v>5943</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07958496559018201</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2521690046938433</v>
+        <v>0.2542064959509925</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -1845,19 +1845,19 @@
         <v>7051</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3483</v>
+        <v>3393</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12342</v>
+        <v>12262</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1881486765771955</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0929501062500572</v>
+        <v>0.09053308473344746</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3293326414018667</v>
+        <v>0.3271837490497821</v>
       </c>
     </row>
     <row r="22">
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5043</v>
+        <v>5067</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1189292991504006</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3577607486180927</v>
+        <v>0.3594206389314428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1895,19 +1895,19 @@
         <v>3387</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7853</v>
+        <v>8918</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1448668463635954</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04644756424158395</v>
+        <v>0.04670994652634195</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3358884948871208</v>
+        <v>0.3814385679534394</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -1916,19 +1916,19 @@
         <v>5063</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1982</v>
+        <v>1934</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10603</v>
+        <v>10363</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.135110331665961</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05289748747321549</v>
+        <v>0.05159862952665077</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2829231145520041</v>
+        <v>0.2765179288574452</v>
       </c>
     </row>
     <row r="23">
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4124</v>
+        <v>4547</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1082570113443924</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4434869380575175</v>
+        <v>0.488963125470534</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4230</v>
+        <v>5691</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04422415608003719</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1858115731641951</v>
+        <v>0.2499856157841454</v>
       </c>
     </row>
     <row r="25">
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6080</v>
+        <v>5758</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07867570131436435</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4515615237446061</v>
+        <v>0.4276208588717015</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5297</v>
+        <v>4705</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04653582925042838</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2326866126132604</v>
+        <v>0.2066892999166444</v>
       </c>
     </row>
     <row r="26">
@@ -2169,19 +2169,19 @@
         <v>2656</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6305</v>
+        <v>6371</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2856380363562819</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07904646303519176</v>
+        <v>0.08083671653111914</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6780094510663544</v>
+        <v>0.685003154403184</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7011</v>
+        <v>6881</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1720719617507203</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5206633381367607</v>
+        <v>0.5110621601727228</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -2211,19 +2211,19 @@
         <v>4973</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1734</v>
+        <v>1967</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>9814</v>
+        <v>10225</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2184649274014727</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07614825560608912</v>
+        <v>0.08639534777966029</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4311063370178689</v>
+        <v>0.4491671405841684</v>
       </c>
     </row>
     <row r="28">
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4967</v>
+        <v>4088</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1104989314851543</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5340690307025671</v>
+        <v>0.4395195164351122</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2261,19 +2261,19 @@
         <v>8193</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3608</v>
+        <v>4611</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11350</v>
+        <v>11596</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6084698480472626</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2679260146230131</v>
+        <v>0.3424278762038211</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8429574016556023</v>
+        <v>0.8611836405181572</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -2282,19 +2282,19 @@
         <v>9221</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4764</v>
+        <v>4772</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14279</v>
+        <v>14268</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4050433608029091</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2092755870659132</v>
+        <v>0.2096151223626295</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6272351993283494</v>
+        <v>0.6267596587051314</v>
       </c>
     </row>
     <row r="29">
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3336</v>
+        <v>3714</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08273267329487849</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3587491800084355</v>
+        <v>0.3993106771704091</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5006</v>
+        <v>3991</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03379718884970819</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2198933354780313</v>
+        <v>0.1753209989618691</v>
       </c>
     </row>
     <row r="30">
@@ -2421,19 +2421,19 @@
         <v>3840</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1007</v>
+        <v>1078</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6754</v>
+        <v>6866</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4128733475192929</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.108234616865572</v>
+        <v>0.1158689172111161</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7262901584283159</v>
+        <v>0.7382551939583484</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4180</v>
+        <v>3339</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05457267262147577</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3104395282564488</v>
+        <v>0.2479700739551287</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -2463,19 +2463,19 @@
         <v>4574</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1688</v>
+        <v>1774</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9901</v>
+        <v>9511</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2009423605842732</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07414396652160407</v>
+        <v>0.07791049120659134</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4349136771225184</v>
+        <v>0.4177840141568454</v>
       </c>
     </row>
     <row r="32">
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6609</v>
+        <v>6637</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1648855175805413</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4907957709172586</v>
+        <v>0.4929152890068255</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6801</v>
+        <v>6780</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09752800628159958</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2987555266451297</v>
+        <v>0.2978207893625462</v>
       </c>
     </row>
     <row r="33">
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4252</v>
+        <v>4221</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1914916202713705</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7733426061319725</v>
+        <v>0.7677687031357942</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4643</v>
+        <v>5127</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2965829338365297</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7347232379491704</v>
+        <v>0.8113305736709412</v>
       </c>
     </row>
     <row r="38">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>4542</v>
+        <v>4655</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2400891327888362</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8261133609410598</v>
+        <v>0.8466921775269232</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>4931</v>
+        <v>4997</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2088819332469249</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7802823280377602</v>
+        <v>0.7907169919821427</v>
       </c>
     </row>
     <row r="39">
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4439</v>
+        <v>4306</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2030746820041152</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8074724448769419</v>
+        <v>0.7831386948718917</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>4301</v>
+        <v>4279</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1766786846109867</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6806671949579486</v>
+        <v>0.6771861431140184</v>
       </c>
     </row>
     <row r="40">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5373</v>
+        <v>4485</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3178564483055587</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.8502738192779823</v>
+        <v>0.7097573800612067</v>
       </c>
     </row>
     <row r="42">
@@ -3144,19 +3144,19 @@
         <v>3076</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1002</v>
+        <v>1013</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8147</v>
+        <v>7205</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.06619342768990225</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02157023248618966</v>
+        <v>0.02179651737619683</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1753336757192929</v>
+        <v>0.1550665592695865</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>6264</v>
+        <v>5675</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01223706907217448</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.06865871647158722</v>
+        <v>0.06220390460321911</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>4</v>
@@ -3186,19 +3186,19 @@
         <v>4192</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>9659</v>
+        <v>10591</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.030443931123524</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.007637527631814672</v>
+        <v>0.007633016262788001</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.07014365041119335</v>
+        <v>0.07691272864124209</v>
       </c>
     </row>
     <row r="45">
@@ -3228,19 +3228,19 @@
         <v>6524</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2658</v>
+        <v>2254</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>12940</v>
+        <v>13376</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.07150337191038102</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02913677566845231</v>
+        <v>0.02470129775512431</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1418291666283402</v>
+        <v>0.146609262466328</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>6</v>
@@ -3249,19 +3249,19 @@
         <v>6524</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2241</v>
+        <v>2304</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>13029</v>
+        <v>13342</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.04737550149936862</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0162723785069486</v>
+        <v>0.01672890669593508</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.09461360069999718</v>
+        <v>0.09689139558749159</v>
       </c>
     </row>
     <row r="46">
@@ -3325,19 +3325,19 @@
         <v>9866</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5458</v>
+        <v>5372</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>16087</v>
+        <v>15916</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2123295659545963</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1174515602091384</v>
+        <v>0.115611074072934</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3462036767431625</v>
+        <v>0.3425246647638562</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>15</v>
@@ -3346,19 +3346,19 @@
         <v>17006</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>9687</v>
+        <v>10292</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>26060</v>
+        <v>26480</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1863962323152102</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1061692652029618</v>
+        <v>0.1128071035506499</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2856234698725186</v>
+        <v>0.2902353241686983</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>26</v>
@@ -3367,19 +3367,19 @@
         <v>26873</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>18611</v>
+        <v>17919</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>37225</v>
+        <v>36600</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1951470939411612</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1351497801159244</v>
+        <v>0.1301233762392169</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2703277447679653</v>
+        <v>0.2657844001528296</v>
       </c>
     </row>
     <row r="48">
@@ -3396,19 +3396,19 @@
         <v>9341</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4679</v>
+        <v>4605</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>14961</v>
+        <v>15041</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2010234471298252</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1006918883190051</v>
+        <v>0.09909397119004769</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3219766390201367</v>
+        <v>0.3236967057623559</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>33</v>
@@ -3417,19 +3417,19 @@
         <v>37008</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>27007</v>
+        <v>26335</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>47038</v>
+        <v>47234</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4056165010002787</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2960048307100975</v>
+        <v>0.2886379966177863</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5155542782630845</v>
+        <v>0.5176969273250723</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>43</v>
@@ -3438,19 +3438,19 @@
         <v>46349</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>35056</v>
+        <v>35557</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>58547</v>
+        <v>57911</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3365792715816909</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2545697705646398</v>
+        <v>0.2582085798095107</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4251592577188015</v>
+        <v>0.4205469346904753</v>
       </c>
     </row>
     <row r="49">
@@ -3467,19 +3467,19 @@
         <v>3369</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>852</v>
+        <v>1525</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>8412</v>
+        <v>9037</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.07250272056715908</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.0183307705443064</v>
+        <v>0.0328292383707826</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1810365401380803</v>
+        <v>0.1944802847888645</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>9</v>
@@ -3488,19 +3488,19 @@
         <v>10022</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>4733</v>
+        <v>5107</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>17471</v>
+        <v>17377</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1098423062812278</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05187587566810475</v>
+        <v>0.05596989098476819</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1914862712204389</v>
+        <v>0.190453350910136</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>13</v>
@@ -3509,19 +3509,19 @@
         <v>13391</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>7412</v>
+        <v>7483</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>21993</v>
+        <v>22931</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.09724255523117778</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.05382788099655002</v>
+        <v>0.05434078999124323</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1597117231719035</v>
+        <v>0.1665191386424807</v>
       </c>
     </row>
     <row r="50">
@@ -3585,19 +3585,19 @@
         <v>19334</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>13343</v>
+        <v>13387</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>26401</v>
+        <v>25181</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.4160907329351239</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2871520558060892</v>
+        <v>0.2880932905580035</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5681646637715156</v>
+        <v>0.5419176845019976</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>11</v>
@@ -3606,19 +3606,19 @@
         <v>10754</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>5497</v>
+        <v>5754</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>18431</v>
+        <v>17878</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.117862874206065</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.06024713557485877</v>
+        <v>0.06306699360299726</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.2020099982934418</v>
+        <v>0.1959489550847777</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>32</v>
@@ -3627,19 +3627,19 @@
         <v>30088</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>22151</v>
+        <v>21440</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>40662</v>
+        <v>40364</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2184959343838015</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1608555824434465</v>
+        <v>0.1556935450127808</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.295283619798665</v>
+        <v>0.2931211769057068</v>
       </c>
     </row>
     <row r="52">
@@ -3659,16 +3659,16 @@
         <v>813</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>6752</v>
+        <v>6677</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.05412353366537447</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01749897222198628</v>
+        <v>0.01749798406137337</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1453023615894987</v>
+        <v>0.1436989537232005</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>10</v>
@@ -3677,19 +3677,19 @@
         <v>10799</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>6033</v>
+        <v>5298</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>18257</v>
+        <v>18004</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1183562514759423</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.06612398610783696</v>
+        <v>0.05806553114997719</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2000997371072305</v>
+        <v>0.1973263643330198</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>13</v>
@@ -3698,19 +3698,19 @@
         <v>13314</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>7561</v>
+        <v>7472</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>21440</v>
+        <v>21980</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.09668176746107721</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.05490735629308793</v>
+        <v>0.0542636884366646</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1556959013204413</v>
+        <v>0.1596201740708577</v>
       </c>
     </row>
     <row r="53">
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5563</v>
+        <v>5572</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01608437751834645</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08070992258300921</v>
+        <v>0.08083947756976025</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5576</v>
+        <v>5623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01173106554283355</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05900632243903367</v>
+        <v>0.05950214523201248</v>
       </c>
     </row>
     <row r="5">
@@ -4081,19 +4081,19 @@
         <v>3438</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8343</v>
+        <v>8005</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1344282717942892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04439204397964148</v>
+        <v>0.04395690804948763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3261974352488083</v>
+        <v>0.3129884904169193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -4102,19 +4102,19 @@
         <v>16012</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10345</v>
+        <v>9847</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24517</v>
+        <v>23756</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.232308347010357</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1500999547279404</v>
+        <v>0.1428634508604273</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3557066759153735</v>
+        <v>0.3446725887359907</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -4123,19 +4123,19 @@
         <v>19450</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12112</v>
+        <v>12913</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28195</v>
+        <v>28524</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2058166470290439</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.128169518697129</v>
+        <v>0.1366433315702505</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.298355143188253</v>
+        <v>0.3018397115036047</v>
       </c>
     </row>
     <row r="6">
@@ -4199,19 +4199,19 @@
         <v>6594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3228</v>
+        <v>3255</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11987</v>
+        <v>12040</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2577904407134361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1262000549489359</v>
+        <v>0.1272616866873457</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4686557207983711</v>
+        <v>0.470743007974135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -4220,19 +4220,19 @@
         <v>21528</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14768</v>
+        <v>14296</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30039</v>
+        <v>29583</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3123482954912826</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.214267258312161</v>
+        <v>0.2074234375021916</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4358272058961303</v>
+        <v>0.4292171681092812</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -4241,19 +4241,19 @@
         <v>28122</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19427</v>
+        <v>19542</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37368</v>
+        <v>37592</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2975819570183275</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2055759089772345</v>
+        <v>0.2067873025283891</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3954232343276141</v>
+        <v>0.3977923701255604</v>
       </c>
     </row>
     <row r="8">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6667</v>
+        <v>7695</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08673023663915234</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2606683332668549</v>
+        <v>0.3008735516102775</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -4291,19 +4291,19 @@
         <v>22570</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15546</v>
+        <v>14757</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31903</v>
+        <v>30421</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3274663870637965</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2255460430459163</v>
+        <v>0.2141023815475094</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.462869446976122</v>
+        <v>0.4413642798841491</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -4312,19 +4312,19 @@
         <v>24789</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16895</v>
+        <v>17153</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34667</v>
+        <v>34273</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2623100224244382</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.178781452373959</v>
+        <v>0.1815077243316145</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3668410759317626</v>
+        <v>0.3626683534598776</v>
       </c>
     </row>
     <row r="9">
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5329</v>
+        <v>5072</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0388616199191694</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2083557245221391</v>
+        <v>0.1983061046080036</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -4362,19 +4362,19 @@
         <v>4078</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>986</v>
+        <v>968</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10457</v>
+        <v>9431</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05917246465184316</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0143094046481161</v>
+        <v>0.01403868545379175</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.151718980229664</v>
+        <v>0.1368337717045759</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -4383,19 +4383,19 @@
         <v>5072</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1936</v>
+        <v>1927</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10980</v>
+        <v>11617</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05367523956453858</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02048688067268815</v>
+        <v>0.0203956178009273</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1161891871219264</v>
+        <v>0.1229289899206507</v>
       </c>
     </row>
     <row r="10">
@@ -4459,19 +4459,19 @@
         <v>14715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9347</v>
+        <v>9407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19171</v>
+        <v>19892</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5753374508454937</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3654639130237948</v>
+        <v>0.3677865828520789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7495276747154447</v>
+        <v>0.7777183138643576</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -4480,19 +4480,19 @@
         <v>7554</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13205</v>
+        <v>14006</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1095972340440051</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04588606175699476</v>
+        <v>0.04583678632631241</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1915821935587415</v>
+        <v>0.2032058072859657</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -4501,19 +4501,19 @@
         <v>22269</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14807</v>
+        <v>14953</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30715</v>
+        <v>31843</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2356520012221093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1566829812260145</v>
+        <v>0.1582327331848669</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.325019119606772</v>
+        <v>0.3369618610148212</v>
       </c>
     </row>
     <row r="12">
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5418</v>
+        <v>5218</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0403579521566091</v>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2118145846528087</v>
+        <v>0.2039998224395375</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -4551,19 +4551,19 @@
         <v>7408</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3209</v>
+        <v>3146</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14765</v>
+        <v>13669</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1074831869899192</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04655222176811911</v>
+        <v>0.04564215342006276</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2142269822614175</v>
+        <v>0.1983207452370361</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -4572,19 +4572,19 @@
         <v>8440</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4205</v>
+        <v>4138</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15804</v>
+        <v>15616</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08931542834799164</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04449965692951727</v>
+        <v>0.04378486462793253</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1672337957890477</v>
+        <v>0.1652490129497143</v>
       </c>
     </row>
     <row r="13">
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5525</v>
+        <v>5495</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01426000789850104</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07221774597637876</v>
+        <v>0.07182712021587033</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5991</v>
+        <v>5356</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01066226151019248</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05854490374423127</v>
+        <v>0.05233968012109189</v>
       </c>
     </row>
     <row r="15">
@@ -4728,19 +4728,19 @@
         <v>14088</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8590</v>
+        <v>8485</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22784</v>
+        <v>21991</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1841354845212465</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1122736013692054</v>
+        <v>0.110902756526465</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2977915949392214</v>
+        <v>0.2874299954892685</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>13</v>
@@ -4749,19 +4749,19 @@
         <v>14088</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8090</v>
+        <v>7705</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>22702</v>
+        <v>22917</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1376787939562015</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07905962579383717</v>
+        <v>0.07529986894836775</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.221854095659293</v>
+        <v>0.2239613582508095</v>
       </c>
     </row>
     <row r="16">
@@ -4825,19 +4825,19 @@
         <v>6577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2852</v>
+        <v>2645</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12625</v>
+        <v>12220</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2547729949314256</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1104760231462037</v>
+        <v>0.102455065874006</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4890292433296999</v>
+        <v>0.4733336576664438</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -4846,19 +4846,19 @@
         <v>25473</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17551</v>
+        <v>17979</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35363</v>
+        <v>34677</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3329330326008091</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.229400128113323</v>
+        <v>0.2349860602394473</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4622032042249001</v>
+        <v>0.4532320827011568</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -4867,19 +4867,19 @@
         <v>32050</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22076</v>
+        <v>24514</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42093</v>
+        <v>43671</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3132135489065088</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.215737117453808</v>
+        <v>0.2395697150980574</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4113532371521586</v>
+        <v>0.4267833543215533</v>
       </c>
     </row>
     <row r="18">
@@ -4896,19 +4896,19 @@
         <v>7485</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2427</v>
+        <v>2267</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14029</v>
+        <v>13853</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2899269662524885</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09399707272481957</v>
+        <v>0.08781858301464258</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5434000528341658</v>
+        <v>0.5365716118958613</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -4917,19 +4917,19 @@
         <v>23123</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15827</v>
+        <v>15516</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31403</v>
+        <v>31773</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3022169574341455</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2068668964153569</v>
+        <v>0.2027948532192486</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.410441285091265</v>
+        <v>0.4152794842436472</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -4938,19 +4938,19 @@
         <v>30608</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21080</v>
+        <v>20973</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>41332</v>
+        <v>40722</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.29911623885805</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2060048081459797</v>
+        <v>0.2049604811225184</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4039197165427075</v>
+        <v>0.3979590234919164</v>
       </c>
     </row>
     <row r="19">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4958</v>
+        <v>4799</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04112487047464483</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.192051828702565</v>
+        <v>0.1858970515834664</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4988,19 +4988,19 @@
         <v>4205</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>988</v>
+        <v>1062</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9538</v>
+        <v>10402</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0549634420444026</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01291371413479509</v>
+        <v>0.01387638005577681</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1246625099803693</v>
+        <v>0.1359625838313478</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -5009,19 +5009,19 @@
         <v>5267</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2029</v>
+        <v>2017</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11259</v>
+        <v>11561</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0514720224576239</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01983336272404064</v>
+        <v>0.01971068307666777</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1100320099971853</v>
+        <v>0.1129823201108313</v>
       </c>
     </row>
     <row r="20">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5994</v>
+        <v>4905</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03864646392455771</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2321597499886806</v>
+        <v>0.1899933144563917</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5526</v>
+        <v>5499</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01437145647777939</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0722300552692474</v>
+        <v>0.07187014603074324</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6987</v>
+        <v>6470</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02049594960495293</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06828425067684643</v>
+        <v>0.06322409915035</v>
       </c>
     </row>
     <row r="21">
@@ -5109,19 +5109,19 @@
         <v>8409</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3837</v>
+        <v>3496</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15930</v>
+        <v>15148</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3257255278716388</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1486259136075424</v>
+        <v>0.1354099243750101</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6170469914974887</v>
+        <v>0.5867526811653573</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -5130,19 +5130,19 @@
         <v>10459</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5261</v>
+        <v>5200</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18069</v>
+        <v>17248</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1366975466461098</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06875602217609447</v>
+        <v>0.06796881828474553</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2361671597240924</v>
+        <v>0.2254390040689975</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -5151,19 +5151,19 @@
         <v>18868</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11652</v>
+        <v>11526</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>28372</v>
+        <v>28216</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1843885957383681</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1138705273244039</v>
+        <v>0.1126354929348767</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2772647544622729</v>
+        <v>0.2757433063579726</v>
       </c>
     </row>
     <row r="22">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7340</v>
+        <v>7534</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08687189666800246</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2843128854125986</v>
+        <v>0.2918056601579126</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -5201,19 +5201,19 @@
         <v>7744</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14136</v>
+        <v>14225</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1012205392001543</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0423253585628568</v>
+        <v>0.04226380708201233</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1847660327690963</v>
+        <v>0.1859274149536284</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -5222,19 +5222,19 @@
         <v>9987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5307</v>
+        <v>5292</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17878</v>
+        <v>16685</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09760043062696017</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05185975975614236</v>
+        <v>0.0517135364481448</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1747097861133408</v>
+        <v>0.1630563054559538</v>
       </c>
     </row>
     <row r="23">
@@ -5349,19 +5349,19 @@
         <v>4276</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9073</v>
+        <v>9046</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2062365590764761</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05297414745688326</v>
+        <v>0.05256659145419177</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4376036953881344</v>
+        <v>0.4363288584716831</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -5370,19 +5370,19 @@
         <v>8568</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4249</v>
+        <v>4040</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14778</v>
+        <v>14455</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2192123936031191</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.10870755257107</v>
+        <v>0.1033554329735755</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.378086690472214</v>
+        <v>0.3698426124548332</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -5391,19 +5391,19 @@
         <v>12844</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7240</v>
+        <v>6614</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20074</v>
+        <v>20086</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2147149793701749</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1210340158571498</v>
+        <v>0.1105731851052502</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3355768707889233</v>
+        <v>0.3357864642595645</v>
       </c>
     </row>
     <row r="26">
@@ -5467,19 +5467,19 @@
         <v>5016</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1934</v>
+        <v>1860</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9628</v>
+        <v>9713</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2419168200907768</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09330262684852447</v>
+        <v>0.0897221270332515</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4643998855640197</v>
+        <v>0.4684883716955233</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -5488,19 +5488,19 @@
         <v>9526</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4587</v>
+        <v>4948</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15114</v>
+        <v>15675</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2437170755264665</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1173675400434446</v>
+        <v>0.1265989738277576</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3867037817468725</v>
+        <v>0.4010376177708381</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>14</v>
@@ -5509,19 +5509,19 @@
         <v>14541</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>8484</v>
+        <v>8451</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>22739</v>
+        <v>21982</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2430931083817883</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1418257145090643</v>
+        <v>0.1412847068652978</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3801280917958791</v>
+        <v>0.3674740557940117</v>
       </c>
     </row>
     <row r="28">
@@ -5538,19 +5538,19 @@
         <v>5211</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1977</v>
+        <v>1898</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10438</v>
+        <v>9962</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2513444338400107</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09534395960701338</v>
+        <v>0.09154851227581305</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5034622315190797</v>
+        <v>0.4805050471704592</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -5559,19 +5559,19 @@
         <v>5382</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1160</v>
+        <v>2093</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11559</v>
+        <v>13049</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1376979578497123</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02967888821152831</v>
+        <v>0.05356056479687708</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2957413253379709</v>
+        <v>0.3338609089939324</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -5580,19 +5580,19 @@
         <v>10593</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5298</v>
+        <v>4911</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17820</v>
+        <v>17445</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1770877387222461</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08856940221374482</v>
+        <v>0.08210307821355703</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2978987687326069</v>
+        <v>0.2916333034696204</v>
       </c>
     </row>
     <row r="29">
@@ -5622,19 +5622,19 @@
         <v>3170</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>882</v>
+        <v>836</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7840</v>
+        <v>8546</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08111374149444472</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0225657165351225</v>
+        <v>0.02138451416092355</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2005925830911086</v>
+        <v>0.2186571914620701</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -5643,19 +5643,19 @@
         <v>3170</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8410</v>
+        <v>8854</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05299978129131197</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01537895035153743</v>
+        <v>0.01507795270876278</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1405988085389816</v>
+        <v>0.1480203858852476</v>
       </c>
     </row>
     <row r="30">
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5596</v>
+        <v>5799</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02968673251392592</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1431771797715771</v>
+        <v>0.1483764200264023</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5793</v>
+        <v>6020</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01939733393508314</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09684247232706343</v>
+        <v>0.1006347667700712</v>
       </c>
     </row>
     <row r="31">
@@ -5735,19 +5735,19 @@
         <v>8322</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4210</v>
+        <v>3264</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>13514</v>
+        <v>13210</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4013765837224624</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2030633058702798</v>
+        <v>0.1574189995945988</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6518249198218835</v>
+        <v>0.6371331393679833</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -5756,19 +5756,19 @@
         <v>9411</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4951</v>
+        <v>4764</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16208</v>
+        <v>16443</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2407735112722434</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1266633993039261</v>
+        <v>0.1218806204185049</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4146875935190162</v>
+        <v>0.4207039771724062</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -5777,19 +5777,19 @@
         <v>17732</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10470</v>
+        <v>10738</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>26319</v>
+        <v>25739</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2964384122394307</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1750245117703919</v>
+        <v>0.1795069062350913</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4399846890798813</v>
+        <v>0.4302821662889663</v>
       </c>
     </row>
     <row r="32">
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6340</v>
+        <v>6069</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09749583591166304</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3057957783970212</v>
+        <v>0.2927003016065672</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -5827,19 +5827,19 @@
         <v>11379</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6222</v>
+        <v>5604</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>19057</v>
+        <v>18319</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.291126869827747</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.159179055313578</v>
+        <v>0.1433717593573879</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4875861708452757</v>
+        <v>0.4687000406871626</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>11</v>
@@ -5848,19 +5848,19 @@
         <v>13400</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6728</v>
+        <v>7280</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21726</v>
+        <v>21431</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2240145029055398</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1124798316334924</v>
+        <v>0.1217103366373087</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3632045920095496</v>
+        <v>0.3582679434832334</v>
       </c>
     </row>
     <row r="33">
@@ -5941,19 +5941,19 @@
         <v>3236</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8561</v>
+        <v>7715</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1649403202368821</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05135829558814879</v>
+        <v>0.05118776933897253</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4364000326696286</v>
+        <v>0.3933007511645205</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -5962,19 +5962,19 @@
         <v>3236</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>966</v>
+        <v>918</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7898</v>
+        <v>8447</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1244717024503325</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03716013430576326</v>
+        <v>0.03531465698800391</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3038113412699026</v>
+        <v>0.3249307016795767</v>
       </c>
     </row>
     <row r="35">
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4258</v>
+        <v>4680</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1725607927329116</v>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6676388375980375</v>
+        <v>0.7337474966310884</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6657</v>
+        <v>6672</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.111043836430679</v>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3393568283202011</v>
+        <v>0.3401049219965894</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -6033,19 +6033,19 @@
         <v>3279</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>978</v>
+        <v>1004</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8042</v>
+        <v>7901</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1261372119522711</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03761249357068134</v>
+        <v>0.03861260979655937</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3093643645870216</v>
+        <v>0.3039345470762906</v>
       </c>
     </row>
     <row r="36">
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5144</v>
+        <v>5137</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3298130766172845</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8065844145687984</v>
+        <v>0.8054554417116693</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4</v>
@@ -6130,19 +6130,19 @@
         <v>4407</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1204</v>
+        <v>1058</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8954</v>
+        <v>8835</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2246686144657185</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06137849867398171</v>
+        <v>0.05392036223721733</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4564387599530291</v>
+        <v>0.4503713954210552</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6</v>
@@ -6151,19 +6151,19 @@
         <v>6511</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2205</v>
+        <v>3014</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>11780</v>
+        <v>11871</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2504661335021377</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08482780735477281</v>
+        <v>0.1159586180095232</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4531465910799252</v>
+        <v>0.4566720465129136</v>
       </c>
     </row>
     <row r="38">
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4192</v>
+        <v>5120</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1647264439464312</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6572496824124663</v>
+        <v>0.8028071038837288</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5</v>
@@ -6201,19 +6201,19 @@
         <v>5468</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2167</v>
+        <v>2189</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>10207</v>
+        <v>9944</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2787140145452699</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1104625993376458</v>
+        <v>0.1115714055755528</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5203066351189597</v>
+        <v>0.5069312362549101</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -6222,19 +6222,19 @@
         <v>6518</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2315</v>
+        <v>2293</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>11876</v>
+        <v>11395</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2507468114965744</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08904377014847804</v>
+        <v>0.08822334355368502</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4568759550746941</v>
+        <v>0.4383690850115042</v>
       </c>
     </row>
     <row r="39">
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>6317</v>
+        <v>6261</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.101847990529495</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3220289110088763</v>
+        <v>0.3191638128316214</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>7013</v>
+        <v>6208</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.07685927100265721</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2697849022546399</v>
+        <v>0.2388025434428828</v>
       </c>
     </row>
     <row r="40">
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5697</v>
+        <v>5696</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3436139566958182</v>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8932125415599314</v>
+        <v>0.8930683994987857</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6780</v>
+        <v>6842</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1162791167997419</v>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3456148334498562</v>
+        <v>0.3488032580293792</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -6403,19 +6403,19 @@
         <v>4473</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10287</v>
+        <v>10851</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1720564229921157</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.04460715734814233</v>
+        <v>0.04507515269769685</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3957251867768474</v>
+        <v>0.4174130170878774</v>
       </c>
     </row>
     <row r="42">
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5156</v>
+        <v>5149</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3344073154733777</v>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8083772986568262</v>
+        <v>0.8073306453470608</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -6453,19 +6453,19 @@
         <v>3298</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1087</v>
+        <v>1071</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>8731</v>
+        <v>7783</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1681058442434473</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05543022735239322</v>
+        <v>0.05459871743522889</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.445093752022591</v>
+        <v>0.3967515360735067</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5</v>
@@ -6474,19 +6474,19 @@
         <v>5431</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2056</v>
+        <v>2045</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>10861</v>
+        <v>10824</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2089084246366436</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07907731812990731</v>
+        <v>0.07866349061507862</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4177926109787298</v>
+        <v>0.4163752796963514</v>
       </c>
     </row>
     <row r="43">
@@ -6567,19 +6567,19 @@
         <v>5435</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2079</v>
+        <v>2111</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>12069</v>
+        <v>12161</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02662553061159098</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0101839170605638</v>
+        <v>0.01034351678289747</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05912158028023264</v>
+        <v>0.05957339118311558</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5</v>
@@ -6588,19 +6588,19 @@
         <v>5435</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2122</v>
+        <v>2105</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>11161</v>
+        <v>11244</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01923017792556303</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.007509480352172814</v>
+        <v>0.007449196939234896</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03948785385157714</v>
+        <v>0.03978365623998715</v>
       </c>
     </row>
     <row r="45">
@@ -6617,19 +6617,19 @@
         <v>8815</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>4433</v>
+        <v>3809</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>16717</v>
+        <v>15906</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1122831961153217</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.05646774935398383</v>
+        <v>0.04852351173616781</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2129467556805692</v>
+        <v>0.2026088659511811</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>38</v>
@@ -6638,19 +6638,19 @@
         <v>40846</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>29902</v>
+        <v>28821</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>54203</v>
+        <v>53607</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2000925687832447</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1464791037542363</v>
+        <v>0.1411855007934234</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2655255322404802</v>
+        <v>0.2626032276633399</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>46</v>
@@ -6659,19 +6659,19 @@
         <v>49661</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>37265</v>
+        <v>38275</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>64285</v>
+        <v>64055</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1757031476110914</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1318457216238796</v>
+        <v>0.1354174470454461</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2274449312074183</v>
+        <v>0.2266292043912909</v>
       </c>
     </row>
     <row r="46">
@@ -6735,19 +6735,19 @@
         <v>20290</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>12117</v>
+        <v>13724</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>28998</v>
+        <v>29980</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2584571864598823</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1543425693935445</v>
+        <v>0.1748232253608195</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3693727612120711</v>
+        <v>0.3818927642927004</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>57</v>
@@ -6756,19 +6756,19 @@
         <v>60934</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>47723</v>
+        <v>48699</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>74233</v>
+        <v>74845</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2984971017499323</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2337814019920777</v>
+        <v>0.2385591987130062</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3636443600823877</v>
+        <v>0.3666449591737881</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>76</v>
@@ -6777,19 +6777,19 @@
         <v>81224</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>65812</v>
+        <v>67856</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>97059</v>
+        <v>98318</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2873758475143567</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2328449983240431</v>
+        <v>0.2400769120572213</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3434016935201323</v>
+        <v>0.3478544995583518</v>
       </c>
     </row>
     <row r="48">
@@ -6806,19 +6806,19 @@
         <v>15965</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>8981</v>
+        <v>8549</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>25548</v>
+        <v>24337</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2033637550997546</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1144051153333286</v>
+        <v>0.1089016391389287</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.325434690684985</v>
+        <v>0.3100021492943594</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>51</v>
@@ -6827,19 +6827,19 @@
         <v>56542</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>44480</v>
+        <v>43681</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>70443</v>
+        <v>69428</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2769834867628402</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2178954217277878</v>
+        <v>0.2139794671000947</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3450781681727986</v>
+        <v>0.3401087910304616</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>64</v>
@@ -6848,19 +6848,19 @@
         <v>72507</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>59390</v>
+        <v>58949</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>89097</v>
+        <v>88612</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2565352978331427</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2101269578734591</v>
+        <v>0.2085659638264051</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3152303118621481</v>
+        <v>0.3135152100553865</v>
       </c>
     </row>
     <row r="49">
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02618538529871148</v>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>13</v>
@@ -6898,19 +6898,19 @@
         <v>13452</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>7463</v>
+        <v>7360</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>21936</v>
+        <v>21378</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.06589693517295654</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.03655763184242824</v>
+        <v>0.03605323065323286</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1074583956489373</v>
+        <v>0.1047240861317767</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>15</v>
@@ -6919,19 +6919,19 @@
         <v>15508</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>8731</v>
+        <v>9366</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>25031</v>
+        <v>25217</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.05486688580744335</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.03088931513184108</v>
+        <v>0.03313613845115112</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.08856062011559104</v>
+        <v>0.08922006631861941</v>
       </c>
     </row>
     <row r="50">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>6147</v>
+        <v>4452</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01270912315344844</v>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.07829669933265754</v>
+        <v>0.05671399783699669</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2</v>
@@ -6972,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>7917</v>
+        <v>7862</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01107046976300542</v>
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03878256259800086</v>
+        <v>0.03851159513476385</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3</v>
@@ -6990,19 +6990,19 @@
         <v>3258</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>9460</v>
+        <v>9302</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01152561260801622</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.00351930601229289</v>
+        <v>0.003483448374766002</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.03347023454399226</v>
+        <v>0.03291195392456114</v>
       </c>
     </row>
     <row r="51">
@@ -7019,19 +7019,19 @@
         <v>33638</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>24573</v>
+        <v>23900</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>43297</v>
+        <v>43723</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.4284824579228118</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3130141429743875</v>
+        <v>0.3044409036687398</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5515191487009463</v>
+        <v>0.5569506016942597</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>27</v>
@@ -7040,19 +7040,19 @@
         <v>29704</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>20100</v>
+        <v>20232</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>41782</v>
+        <v>41067</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.1455125275577033</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.09846495612140607</v>
+        <v>0.09911267551958934</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.2046771764436808</v>
+        <v>0.2011766714578541</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>55</v>
@@ -7061,19 +7061,19 @@
         <v>63342</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>49137</v>
+        <v>48754</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>78706</v>
+        <v>79162</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2241086113360203</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1738482649642784</v>
+        <v>0.1724948826488474</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.2784676963554654</v>
+        <v>0.2800790573351315</v>
       </c>
     </row>
     <row r="52">
@@ -7090,19 +7090,19 @@
         <v>7429</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>14067</v>
+        <v>14551</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.09463356711509734</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.04062427276805123</v>
+        <v>0.04053167540858277</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1791820635544638</v>
+        <v>0.1853536905330833</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>26</v>
@@ -7111,19 +7111,19 @@
         <v>29829</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>19663</v>
+        <v>20193</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>41268</v>
+        <v>42022</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1461233498270896</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.09632402517452052</v>
+        <v>0.09891890799949402</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2021592937189619</v>
+        <v>0.2058523820260836</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>33</v>
@@ -7132,19 +7132,19 @@
         <v>37258</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>25940</v>
+        <v>26218</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>50086</v>
+        <v>50398</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1318218469411205</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.09177546755087163</v>
+        <v>0.09276015033514223</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1772064267543387</v>
+        <v>0.1783119968569201</v>
       </c>
     </row>
     <row r="53">
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8280</v>
+        <v>7984</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03663786278147192</v>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1263759289557948</v>
+        <v>0.1218627750012439</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7197</v>
+        <v>8066</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02681209902332585</v>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08039169597568349</v>
+        <v>0.09009597241797515</v>
       </c>
     </row>
     <row r="5">
@@ -7515,19 +7515,19 @@
         <v>2455</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6939</v>
+        <v>6575</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1022740643884636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03126388352513344</v>
+        <v>0.03218435353541283</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2889995167940074</v>
+        <v>0.2738584523090469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -7536,19 +7536,19 @@
         <v>5475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1403</v>
+        <v>1666</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14023</v>
+        <v>12842</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08356943480269752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02140910625691929</v>
+        <v>0.02542254438921806</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2140408879873902</v>
+        <v>0.1960176681453983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -7557,19 +7557,19 @@
         <v>7931</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3530</v>
+        <v>3622</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15228</v>
+        <v>16456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.088585755557802</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03942879399394277</v>
+        <v>0.04045671770362043</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.170104127663655</v>
+        <v>0.1838157884630102</v>
       </c>
     </row>
     <row r="6">
@@ -7633,19 +7633,19 @@
         <v>4351</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1670</v>
+        <v>1656</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8462</v>
+        <v>8664</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1812124731850316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06954557109109721</v>
+        <v>0.06899047105033963</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.35246364725343</v>
+        <v>0.3608619987239047</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -7654,19 +7654,19 @@
         <v>17927</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11112</v>
+        <v>10964</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26602</v>
+        <v>28062</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2736284142428605</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1696031100382702</v>
+        <v>0.167349117014475</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4060418698029785</v>
+        <v>0.4283246564759282</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -7675,19 +7675,19 @@
         <v>22277</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14352</v>
+        <v>14224</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32484</v>
+        <v>32003</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.248843747906368</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1603116389627172</v>
+        <v>0.1588855966312408</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3628486948344789</v>
+        <v>0.3574775248630737</v>
       </c>
     </row>
     <row r="8">
@@ -7704,19 +7704,19 @@
         <v>5122</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1818</v>
+        <v>2133</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9708</v>
+        <v>10025</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.213333818884932</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0757215739137892</v>
+        <v>0.08884427426085291</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4043442037619219</v>
+        <v>0.4175640879437937</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -7725,19 +7725,19 @@
         <v>19724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12347</v>
+        <v>12483</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28112</v>
+        <v>28422</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3010543980762864</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1884678382556846</v>
+        <v>0.1905435682310745</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4290931694452738</v>
+        <v>0.4338201389488908</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -7746,19 +7746,19 @@
         <v>24846</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16782</v>
+        <v>17022</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33556</v>
+        <v>35203</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2775289622995611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.187460401146107</v>
+        <v>0.1901410872404304</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3748306986212817</v>
+        <v>0.39322217504951</v>
       </c>
     </row>
     <row r="9">
@@ -7775,19 +7775,19 @@
         <v>3524</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8960</v>
+        <v>9069</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1467958742350179</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03628904919996565</v>
+        <v>0.03559414335932256</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3731789046828163</v>
+        <v>0.3777171447053349</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -7796,19 +7796,19 @@
         <v>5344</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1958</v>
+        <v>1921</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11700</v>
+        <v>11663</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08156202227074652</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02989028159582741</v>
+        <v>0.0293272709645039</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1785869011999447</v>
+        <v>0.1780199996766943</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -7817,19 +7817,19 @@
         <v>8868</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3792</v>
+        <v>3892</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16584</v>
+        <v>15850</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09905683145920575</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04235944185948562</v>
+        <v>0.04347116077291993</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1852460487503927</v>
+        <v>0.1770488779246128</v>
       </c>
     </row>
     <row r="10">
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4246</v>
+        <v>4480</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03296557248503656</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1768521671352392</v>
+        <v>0.1865859364759199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7396</v>
+        <v>6175</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01922316375830448</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1128857185317246</v>
+        <v>0.09426076031931484</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6786</v>
+        <v>7089</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02290868609409531</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07580338809899341</v>
+        <v>0.0791863929874104</v>
       </c>
     </row>
     <row r="11">
@@ -7917,19 +7917,19 @@
         <v>10271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5857</v>
+        <v>5831</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15377</v>
+        <v>15461</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4277978239407698</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2439532011940213</v>
+        <v>0.2428620474100487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6404797351686831</v>
+        <v>0.6439789511631809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -7938,19 +7938,19 @@
         <v>8161</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3832</v>
+        <v>3151</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16447</v>
+        <v>15891</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1245697407215826</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05848904909509813</v>
+        <v>0.04809048476212067</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2510456876407593</v>
+        <v>0.2425583203950605</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -7959,19 +7959,19 @@
         <v>18432</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11202</v>
+        <v>11800</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27950</v>
+        <v>27871</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2058912830920596</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1251284698462536</v>
+        <v>0.1318050460119059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3122062449744258</v>
+        <v>0.3113205080669867</v>
       </c>
     </row>
     <row r="12">
@@ -7988,19 +7988,19 @@
         <v>2561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6124</v>
+        <v>6280</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1066529542827748</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02947814383508717</v>
+        <v>0.03271960898480258</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2550717308371571</v>
+        <v>0.2615677213797637</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -8009,19 +8009,19 @@
         <v>12419</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6200</v>
+        <v>6250</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20800</v>
+        <v>20703</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1895580320720532</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09462864373166935</v>
+        <v>0.09539239585147706</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3174840896081637</v>
+        <v>0.315998459115966</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -8030,19 +8030,19 @@
         <v>14980</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8531</v>
+        <v>8253</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23714</v>
+        <v>22922</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1673240466027882</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09529095727511319</v>
+        <v>0.09218386042426072</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2648870038819388</v>
+        <v>0.2560379493101393</v>
       </c>
     </row>
     <row r="13">
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5701</v>
+        <v>4018</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05313861551339568</v>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.315882350137742</v>
+        <v>0.2226502108570535</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -8178,19 +8178,19 @@
         <v>4832</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1237</v>
+        <v>1199</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10828</v>
+        <v>10528</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1125790537629897</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02882937513753362</v>
+        <v>0.02793298920534507</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2522650499424156</v>
+        <v>0.2452663372521573</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -8199,19 +8199,19 @@
         <v>5791</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2225</v>
+        <v>2145</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12167</v>
+        <v>12252</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09498491232881709</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03649800118875653</v>
+        <v>0.03518739673561033</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1995533209135383</v>
+        <v>0.2009491317491112</v>
       </c>
     </row>
     <row r="16">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3168</v>
+        <v>3879</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04077944938319108</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1755375091799616</v>
+        <v>0.2149627843684011</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3141</v>
+        <v>4334</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0120705603993498</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0515226079771889</v>
+        <v>0.07107686698545125</v>
       </c>
     </row>
     <row r="17">
@@ -8291,19 +8291,19 @@
         <v>3627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>908</v>
+        <v>921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7387</v>
+        <v>7550</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.200992419173335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05029210721545755</v>
+        <v>0.05105088215434635</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4093176792661434</v>
+        <v>0.4183448509862491</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -8312,19 +8312,19 @@
         <v>11010</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5674</v>
+        <v>6066</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18487</v>
+        <v>18808</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.256511610136675</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1321854249235495</v>
+        <v>0.1413172193094386</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4307104537578813</v>
+        <v>0.4381757087065881</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -8333,19 +8333,19 @@
         <v>14638</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8175</v>
+        <v>8436</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22930</v>
+        <v>22867</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2400781428392411</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.13408602864185</v>
+        <v>0.1383653380043219</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3760815680399877</v>
+        <v>0.3750479035416867</v>
       </c>
     </row>
     <row r="18">
@@ -8362,19 +8362,19 @@
         <v>3426</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>897</v>
+        <v>842</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7211</v>
+        <v>7395</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1898508619950125</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04972238428470148</v>
+        <v>0.04667718231195515</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3995824087511914</v>
+        <v>0.4097416013918517</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -8383,19 +8383,19 @@
         <v>13830</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7736</v>
+        <v>7620</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21413</v>
+        <v>21554</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3221976995773366</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1802235683045389</v>
+        <v>0.177517389233731</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4988598337696287</v>
+        <v>0.5021505148937309</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -8404,19 +8404,19 @@
         <v>17256</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10508</v>
+        <v>10489</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25311</v>
+        <v>26263</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2830235439459255</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1723507234310661</v>
+        <v>0.1720328001366895</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4151447685573305</v>
+        <v>0.4307461693515024</v>
       </c>
     </row>
     <row r="19">
@@ -8446,19 +8446,19 @@
         <v>5590</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2164</v>
+        <v>2196</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11604</v>
+        <v>12802</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1302427224531695</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05040848263097889</v>
+        <v>0.05115868339451502</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2703467453412611</v>
+        <v>0.2982531162928734</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -8467,19 +8467,19 @@
         <v>5590</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2137</v>
+        <v>2085</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11832</v>
+        <v>12044</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09169137681889665</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03504704160715892</v>
+        <v>0.03419636989312559</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1940625112522432</v>
+        <v>0.1975350687380817</v>
       </c>
     </row>
     <row r="20">
@@ -8543,19 +8543,19 @@
         <v>10326</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6493</v>
+        <v>6531</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13969</v>
+        <v>14032</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5721839656145246</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3597925692843514</v>
+        <v>0.3619040452293791</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7740112201645659</v>
+        <v>0.7775077940711024</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -8564,19 +8564,19 @@
         <v>5741</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2056</v>
+        <v>2095</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11732</v>
+        <v>12061</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1337583081096463</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04790388545948192</v>
+        <v>0.04881178069528598</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2733320496062838</v>
+        <v>0.2809843962744104</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -8585,19 +8585,19 @@
         <v>16067</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9642</v>
+        <v>9844</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23781</v>
+        <v>24361</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2635306189079037</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1581442667181435</v>
+        <v>0.161456772724916</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3900420532776718</v>
+        <v>0.3995604507303535</v>
       </c>
     </row>
     <row r="22">
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3737</v>
+        <v>4604</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04933191934733249</v>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2070794541295988</v>
+        <v>0.2550929390617063</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -8635,19 +8635,19 @@
         <v>5620</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14637</v>
+        <v>14043</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1309418600646669</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0333735615121814</v>
+        <v>0.03314728562515935</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3410093788594181</v>
+        <v>0.3271744682928776</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -8656,19 +8656,19 @@
         <v>6511</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2087</v>
+        <v>2170</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15535</v>
+        <v>15538</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1067856310445178</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03423572479018106</v>
+        <v>0.03559922057249534</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2547987473557111</v>
+        <v>0.2548477746121107</v>
       </c>
     </row>
     <row r="23">
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5452</v>
+        <v>5250</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02370308459016744</v>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1314505697230148</v>
+        <v>0.1265680512030486</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5053</v>
+        <v>5420</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01797007372424444</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0923654993310139</v>
+        <v>0.09907455196856536</v>
       </c>
     </row>
     <row r="25">
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6640</v>
+        <v>7352</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03220682907233237</v>
@@ -8824,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1600901081928435</v>
+        <v>0.1772633586127364</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6229</v>
+        <v>7220</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02441703697475871</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1138545798486038</v>
+        <v>0.1319807177247083</v>
       </c>
     </row>
     <row r="26">
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5669</v>
+        <v>5401</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.137873196916882</v>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4284250818902424</v>
+        <v>0.4081460537603623</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -8930,19 +8930,19 @@
         <v>12139</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6058</v>
+        <v>5800</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>19679</v>
+        <v>19523</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2926846319992525</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1460536287992677</v>
+        <v>0.1398322032130981</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4744598925970738</v>
+        <v>0.4707034081212522</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>11</v>
@@ -8951,19 +8951,19 @@
         <v>13964</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>7708</v>
+        <v>7826</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>21622</v>
+        <v>22324</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2552407442166248</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1408884507324079</v>
+        <v>0.1430524501852717</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3952184653751191</v>
+        <v>0.4080568345436665</v>
       </c>
     </row>
     <row r="28">
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4914</v>
+        <v>4182</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07547066626882741</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3714088247890494</v>
+        <v>0.3160219202836693</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -9001,19 +9001,19 @@
         <v>11297</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5771</v>
+        <v>5367</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18981</v>
+        <v>19267</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2723627464791488</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1391479688971259</v>
+        <v>0.1293965761780647</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.457639604367806</v>
+        <v>0.464533858798198</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -9022,19 +9022,19 @@
         <v>12295</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5322</v>
+        <v>5945</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20315</v>
+        <v>20062</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2247409092888871</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09728592648601689</v>
+        <v>0.1086646596330915</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3713436885575949</v>
+        <v>0.3667121012422947</v>
       </c>
     </row>
     <row r="29">
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3670</v>
+        <v>4160</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05989417283411835</v>
@@ -9063,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2773349780120803</v>
+        <v>0.3143559009590888</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -9072,19 +9072,19 @@
         <v>5018</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1264</v>
+        <v>1231</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11547</v>
+        <v>11313</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1209940647949012</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03047647147832587</v>
+        <v>0.02967233872943763</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2783900881026392</v>
+        <v>0.2727636441713518</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -9093,19 +9093,19 @@
         <v>5811</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2380</v>
+        <v>2069</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12587</v>
+        <v>12121</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1062159736487726</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04349992503884358</v>
+        <v>0.0378123625131058</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2300726349489539</v>
+        <v>0.2215525188092144</v>
       </c>
     </row>
     <row r="30">
@@ -9169,19 +9169,19 @@
         <v>8568</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4799</v>
+        <v>4769</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>11558</v>
+        <v>11592</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6475434292640426</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3627041732822425</v>
+        <v>0.3604264505482255</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8734877333357177</v>
+        <v>0.8760519048832216</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -9190,19 +9190,19 @@
         <v>8128</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3102</v>
+        <v>3097</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15341</v>
+        <v>15756</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1959586293316639</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07478915203241901</v>
+        <v>0.07467535856830741</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3698701408711975</v>
+        <v>0.3798717772043488</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -9211,19 +9211,19 @@
         <v>16696</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10059</v>
+        <v>9557</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>25432</v>
+        <v>24728</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3051824122131518</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1838690819703122</v>
+        <v>0.1746848018865262</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4648610114158864</v>
+        <v>0.4519941695217847</v>
       </c>
     </row>
     <row r="32">
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5390</v>
+        <v>5848</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.154689200984957</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4073493938548234</v>
+        <v>0.4419583180519271</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -9261,19 +9261,19 @@
         <v>3809</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10140</v>
+        <v>9592</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09182502174841609</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02822043901093056</v>
+        <v>0.02893652140428763</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2444744734618913</v>
+        <v>0.2312556110607164</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -9282,19 +9282,19 @@
         <v>5855</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2069</v>
+        <v>2075</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12805</v>
+        <v>12379</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1070298370233834</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03782080204587145</v>
+        <v>0.03792281799420099</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.234063686329686</v>
+        <v>0.2262681148876482</v>
       </c>
     </row>
     <row r="33">
@@ -9503,19 +9503,19 @@
         <v>2512</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6172</v>
+        <v>6651</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1569339284717735</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04744896670215169</v>
+        <v>0.04834408207458703</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3856038607138279</v>
+        <v>0.415517177398503</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>6218</v>
+        <v>7233</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1123717426727889</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2997505212431466</v>
+        <v>0.3486905685869414</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5</v>
@@ -9545,19 +9545,19 @@
         <v>4843</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1667</v>
+        <v>1605</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>10592</v>
+        <v>9883</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1317814726695683</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04536142941853447</v>
+        <v>0.04368240434519697</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2882121022030156</v>
+        <v>0.268930890851094</v>
       </c>
     </row>
     <row r="38">
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>5139</v>
+        <v>4919</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.101094534923892</v>
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3210636008212229</v>
+        <v>0.3073322168783943</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>5841</v>
+        <v>4941</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05809222663448124</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2815719936261188</v>
+        <v>0.238188265885141</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3</v>
@@ -9616,19 +9616,19 @@
         <v>2823</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7637</v>
+        <v>8213</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07682252852992259</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02141338809177692</v>
+        <v>0.02112417176355509</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.207807654232736</v>
+        <v>0.2234694021813924</v>
       </c>
     </row>
     <row r="39">
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>6594</v>
+        <v>6602</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.09460980324202038</v>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4119416115298444</v>
+        <v>0.4124279262003271</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>9</v>
@@ -9666,19 +9666,19 @@
         <v>11529</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>6716</v>
+        <v>6361</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>16196</v>
+        <v>16229</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.5558141222256018</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3237795146494065</v>
+        <v>0.3066588902407636</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.7808029762019514</v>
+        <v>0.7823647892673263</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>10</v>
@@ -9687,19 +9687,19 @@
         <v>13044</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>6473</v>
+        <v>6491</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>19748</v>
+        <v>19414</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3549296470968301</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1761229732930924</v>
+        <v>0.176630235902494</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5373531898806572</v>
+        <v>0.5282588258503873</v>
       </c>
     </row>
     <row r="40">
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6085</v>
+        <v>6225</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08119254321554273</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3801634827657037</v>
+        <v>0.3888917074688739</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5841</v>
+        <v>4941</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.05809222663448124</v>
@@ -9749,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2815719936261188</v>
+        <v>0.238188265885141</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>8442</v>
+        <v>7607</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06815391682403082</v>
@@ -9770,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2297023806048917</v>
+        <v>0.2069960039026155</v>
       </c>
     </row>
     <row r="41">
@@ -9787,19 +9787,19 @@
         <v>4814</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1812</v>
+        <v>1827</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9050</v>
+        <v>8680</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3007629373771162</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1132297341659812</v>
+        <v>0.1141601935913047</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5653498186260257</v>
+        <v>0.5422522681833677</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6024</v>
+        <v>7032</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1042575010372233</v>
@@ -9820,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2904102723902281</v>
+        <v>0.338994193530746</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>7</v>
@@ -9829,19 +9829,19 @@
         <v>6977</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3301</v>
+        <v>2931</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>13185</v>
+        <v>12646</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1898483982042009</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08983506765564658</v>
+        <v>0.07974802543196627</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3587654018585582</v>
+        <v>0.344121134252648</v>
       </c>
     </row>
     <row r="42">
@@ -9858,19 +9858,19 @@
         <v>4248</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8065</v>
+        <v>8257</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2654062527696551</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.09885087385571478</v>
+        <v>0.09914152635712237</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5038234447250215</v>
+        <v>0.5158340021315025</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4</v>
@@ -9879,19 +9879,19 @@
         <v>4720</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>9795</v>
+        <v>9468</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.227556634064386</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05795241240435525</v>
+        <v>0.05747769773929992</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4721858882972018</v>
+        <v>0.4564443407833953</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>9</v>
@@ -9900,19 +9900,19 @@
         <v>8969</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4753</v>
+        <v>4185</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>15692</v>
+        <v>15384</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2440426045431291</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1293396993687056</v>
+        <v>0.1138765064655203</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4270032303056566</v>
+        <v>0.4186049431658451</v>
       </c>
     </row>
     <row r="43">
@@ -9993,19 +9993,19 @@
         <v>3383</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>942</v>
+        <v>978</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>9339</v>
+        <v>8782</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01982595515444018</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.005519214731219893</v>
+        <v>0.005732669760759168</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05472327815364279</v>
+        <v>0.05146175137401037</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3</v>
@@ -10014,19 +10014,19 @@
         <v>3383</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>8956</v>
+        <v>8284</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01398391134366635</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004016255886413372</v>
+        <v>0.003951260593367793</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03701726953898844</v>
+        <v>0.03424000609667172</v>
       </c>
     </row>
     <row r="45">
@@ -10043,19 +10043,19 @@
         <v>3414</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>862</v>
+        <v>822</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>7886</v>
+        <v>7994</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.04789239683279743</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01209264079955514</v>
+        <v>0.01153531993040454</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1106043841703312</v>
+        <v>0.1121285916707586</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>9</v>
@@ -10064,19 +10064,19 @@
         <v>11643</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>5199</v>
+        <v>5414</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>20656</v>
+        <v>21057</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.06822508333099209</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03046753761294144</v>
+        <v>0.03172563227861283</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.121036056104521</v>
+        <v>0.1233894941086944</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>13</v>
@@ -10085,19 +10085,19 @@
         <v>15058</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>8995</v>
+        <v>8035</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>24705</v>
+        <v>25087</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.06223372279436846</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0371778632777083</v>
+        <v>0.0332071278612065</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1021049518314785</v>
+        <v>0.1036858616887035</v>
       </c>
     </row>
     <row r="46">
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>3319</v>
+        <v>4075</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01032241881341296</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04655591869096014</v>
+        <v>0.05716316262578632</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>3773</v>
+        <v>4975</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.003041670500682484</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01559402895369365</v>
+        <v>0.02056330915571567</v>
       </c>
     </row>
     <row r="47">
@@ -10177,19 +10177,19 @@
         <v>12314</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7444</v>
+        <v>7347</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>20346</v>
+        <v>19277</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1727247564171288</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1044162580063643</v>
+        <v>0.103054018908438</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.285373495692208</v>
+        <v>0.2703784382469567</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>34</v>
@@ -10198,19 +10198,19 @@
         <v>43407</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>32001</v>
+        <v>31321</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>55665</v>
+        <v>57787</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2543540351605043</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1875150929376441</v>
+        <v>0.1835310356475819</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3261778256864998</v>
+        <v>0.3386152265489721</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>48</v>
@@ -10219,19 +10219,19 @@
         <v>55722</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>42242</v>
+        <v>42657</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>73072</v>
+        <v>71523</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.23030062542837</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1745861032073351</v>
+        <v>0.176303088477662</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3020079666916392</v>
+        <v>0.2956086553635004</v>
       </c>
     </row>
     <row r="48">
@@ -10248,19 +10248,19 @@
         <v>11165</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6297</v>
+        <v>6525</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>17388</v>
+        <v>18321</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.156602959657493</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.08832253973737472</v>
+        <v>0.09152502377886473</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2438933772111715</v>
+        <v>0.2569763804771389</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>36</v>
@@ -10269,19 +10269,19 @@
         <v>46055</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>34199</v>
+        <v>33185</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>60399</v>
+        <v>60072</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.269867380467908</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2003949344821241</v>
+        <v>0.1944551853187874</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3539177831679556</v>
+        <v>0.3520028770387876</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>49</v>
@@ -10290,19 +10290,19 @@
         <v>57220</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>44627</v>
+        <v>44712</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>72634</v>
+        <v>72015</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2364921557474901</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1844466333014488</v>
+        <v>0.1847979129183368</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3001980338764265</v>
+        <v>0.2976399803607218</v>
       </c>
     </row>
     <row r="49">
@@ -10319,19 +10319,19 @@
         <v>5831</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1893</v>
+        <v>1752</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>12861</v>
+        <v>12942</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.08179239327369307</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02654769632255969</v>
+        <v>0.02456820776035518</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1803879668816859</v>
+        <v>0.1815230080690032</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>23</v>
@@ -10340,19 +10340,19 @@
         <v>27482</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>17951</v>
+        <v>18135</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>39349</v>
+        <v>40409</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1610342208269229</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1051869873863304</v>
+        <v>0.1062656240626784</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.230576120472546</v>
+        <v>0.2367869095532273</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>28</v>
@@ -10361,19 +10361,19 @@
         <v>33313</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>23828</v>
+        <v>22336</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>48414</v>
+        <v>46337</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1376843128600386</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09848223481676346</v>
+        <v>0.09231540027758013</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2000954387679651</v>
+        <v>0.1915124860432706</v>
       </c>
     </row>
     <row r="50">
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>7776</v>
+        <v>9031</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02933070451005982</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1090633861493273</v>
+        <v>0.1266757224941413</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>7474</v>
+        <v>8774</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01444081086023333</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.04379519825416563</v>
+        <v>0.05141187154989995</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>4</v>
@@ -10432,19 +10432,19 @@
         <v>4556</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>10414</v>
+        <v>11563</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01882836295355923</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.005173227977152538</v>
+        <v>0.00511079363436047</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04304225599634852</v>
+        <v>0.04778841658799366</v>
       </c>
     </row>
     <row r="51">
@@ -10461,19 +10461,19 @@
         <v>33980</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>26554</v>
+        <v>25865</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>41880</v>
+        <v>42440</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.4766079385683144</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3724476504711295</v>
+        <v>0.3627898766766268</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5874176856676026</v>
+        <v>0.5952722714581993</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>20</v>
@@ -10482,19 +10482,19 @@
         <v>24193</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>16225</v>
+        <v>15068</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>36521</v>
+        <v>36973</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.14176193566034</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.09507381026772896</v>
+        <v>0.08829441414004084</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.2140036217494505</v>
+        <v>0.2166505628264001</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>56</v>
@@ -10503,19 +10503,19 @@
         <v>58173</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>45332</v>
+        <v>46268</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>73573</v>
+        <v>73965</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2404298184237479</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1873576125949103</v>
+        <v>0.1912260319222323</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.3040805321236168</v>
+        <v>0.3056980802960738</v>
       </c>
     </row>
     <row r="52">
@@ -10532,19 +10532,19 @@
         <v>9746</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>5089</v>
+        <v>5388</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>15967</v>
+        <v>15932</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1367019144014325</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.0713750421629</v>
+        <v>0.0755700166878228</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.223960285144048</v>
+        <v>0.22346331269988</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>20</v>
@@ -10553,19 +10553,19 @@
         <v>26568</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>16104</v>
+        <v>17276</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>39153</v>
+        <v>38673</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1556812086470319</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.09436682751103355</v>
+        <v>0.1012319493131558</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2294260421234351</v>
+        <v>0.2266101693283059</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>31</v>
@@ -10574,19 +10574,19 @@
         <v>36314</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>24399</v>
+        <v>26062</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>49525</v>
+        <v>50278</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1500886474000885</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1008401968161686</v>
+        <v>0.1077160082070883</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2046866456721796</v>
+        <v>0.207801049407173</v>
       </c>
     </row>
     <row r="53">
@@ -10907,19 +10907,19 @@
         <v>3136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6447</v>
+        <v>6375</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04350453355289392</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01664509575442537</v>
+        <v>0.0165476938771025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08943717647394364</v>
+        <v>0.08844481474072359</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -10928,19 +10928,19 @@
         <v>3136</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6931</v>
+        <v>6938</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03232918353341796</v>
+        <v>0.03232918353341797</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01265925765154301</v>
+        <v>0.01248514922559844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0714578374943543</v>
+        <v>0.0715242268757624</v>
       </c>
     </row>
     <row r="5">
@@ -10957,19 +10957,19 @@
         <v>3905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1551</v>
+        <v>1604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7501</v>
+        <v>7465</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1567398487288361</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06225794459795451</v>
+        <v>0.06436348586273523</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.301027779115046</v>
+        <v>0.2995947954321904</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -10978,19 +10978,19 @@
         <v>21738</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16451</v>
+        <v>16562</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27460</v>
+        <v>27859</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.301564811312856</v>
+        <v>0.3015648113128561</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.228220125966461</v>
+        <v>0.229766760713611</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.380952444273139</v>
+        <v>0.3864919239206473</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -10999,19 +10999,19 @@
         <v>25643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19644</v>
+        <v>19338</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33159</v>
+        <v>32134</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2643624897096108</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2025154063851589</v>
+        <v>0.1993578640950518</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3418470512143333</v>
+        <v>0.3312824619649151</v>
       </c>
     </row>
     <row r="6">
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3804</v>
+        <v>3535</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02771094504606039</v>
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1526772026169323</v>
+        <v>0.1418889756666029</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3713</v>
+        <v>3520</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.007118327332108315</v>
+        <v>0.007118327332108317</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03827849182353886</v>
+        <v>0.03628611357450813</v>
       </c>
     </row>
     <row r="7">
@@ -11091,19 +11091,19 @@
         <v>12058</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7780</v>
+        <v>7831</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16220</v>
+        <v>15952</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4839352300070374</v>
+        <v>0.4839352300070373</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3122529117106177</v>
+        <v>0.3142680021587799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.650976241487113</v>
+        <v>0.6401877732414011</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -11112,19 +11112,19 @@
         <v>37006</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30794</v>
+        <v>30956</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43414</v>
+        <v>43710</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5133742644717567</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4271964207841143</v>
+        <v>0.4294463432312758</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6022754148140262</v>
+        <v>0.6063784993005812</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -11133,19 +11133,19 @@
         <v>49064</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41621</v>
+        <v>41747</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56988</v>
+        <v>57081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5058120292858844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4290776386192339</v>
+        <v>0.4303808335341874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5875077266316094</v>
+        <v>0.5884639148773817</v>
       </c>
     </row>
     <row r="8">
@@ -11162,19 +11162,19 @@
         <v>3071</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>963</v>
+        <v>689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7407</v>
+        <v>6723</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1232647685364879</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03865923205211295</v>
+        <v>0.02764294721344959</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2972715009904523</v>
+        <v>0.2698300884993229</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -11183,19 +11183,19 @@
         <v>18245</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13005</v>
+        <v>13062</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24214</v>
+        <v>24517</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.253115426468644</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1804137444352455</v>
+        <v>0.181210904462338</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3359141653136746</v>
+        <v>0.3401164238470938</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -11204,19 +11204,19 @@
         <v>21317</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15726</v>
+        <v>15419</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27808</v>
+        <v>27788</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2197596716968621</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1621200050323884</v>
+        <v>0.1589576176172003</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2866818165263587</v>
+        <v>0.2864739362937</v>
       </c>
     </row>
     <row r="9">
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3419</v>
+        <v>3878</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.041760355790086</v>
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1372281746722701</v>
+        <v>0.1556434810626125</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -11254,19 +11254,19 @@
         <v>5097</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2639</v>
+        <v>2351</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9647</v>
+        <v>9184</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07070962977080621</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03660933865225736</v>
+        <v>0.03260877953581672</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1338361458164311</v>
+        <v>0.1274124604262006</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -11275,19 +11275,19 @@
         <v>6138</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3268</v>
+        <v>3008</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10667</v>
+        <v>10263</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.06327320319354122</v>
+        <v>0.06327320319354124</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03369119935296554</v>
+        <v>0.03101177354793089</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1099644630157262</v>
+        <v>0.1058067737151792</v>
       </c>
     </row>
     <row r="10">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8175</v>
+        <v>5731</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01964891261925383</v>
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1134111345012514</v>
+        <v>0.07950626496057683</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -11341,7 +11341,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5994</v>
+        <v>5537</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01460154265365509</v>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06179198753367434</v>
+        <v>0.05708388746379298</v>
       </c>
     </row>
     <row r="11">
@@ -11367,19 +11367,19 @@
         <v>12092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7825</v>
+        <v>8021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16365</v>
+        <v>16102</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4852729037692619</v>
+        <v>0.485272903769262</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.314060198015913</v>
+        <v>0.321922869299198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6567909880159829</v>
+        <v>0.6462425752138021</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -11388,19 +11388,19 @@
         <v>6207</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3548</v>
+        <v>3575</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10581</v>
+        <v>10873</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08610672887273603</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04922506978126075</v>
+        <v>0.04960162386417973</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1467923647822021</v>
+        <v>0.1508351810126686</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -11409,19 +11409,19 @@
         <v>18298</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12627</v>
+        <v>13080</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24726</v>
+        <v>25026</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1886436682696486</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1301787465681907</v>
+        <v>0.1348440994174594</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.254904860626846</v>
+        <v>0.2579982169842535</v>
       </c>
     </row>
     <row r="12">
@@ -11438,19 +11438,19 @@
         <v>4967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1948</v>
+        <v>2364</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>9154</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1993326398363681</v>
+        <v>0.1993326398363682</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07817933309530053</v>
+        <v>0.09486209639120535</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3673739524723866</v>
+        <v>0.3673942888804521</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -11459,19 +11459,19 @@
         <v>12519</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8096</v>
+        <v>8138</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17978</v>
+        <v>18035</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1736741493016299</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1123109187208113</v>
+        <v>0.1129020912484192</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2494015767402002</v>
+        <v>0.250192750593377</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>29</v>
@@ -11480,19 +11480,19 @@
         <v>17486</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11961</v>
+        <v>12136</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24031</v>
+        <v>24277</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.180265246579997</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1233057608254412</v>
+        <v>0.1251093938371653</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.247740709413512</v>
+        <v>0.2502781370263138</v>
       </c>
     </row>
     <row r="13">
@@ -11560,19 +11560,19 @@
         <v>1710</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5110</v>
+        <v>4899</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0444861318194076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01094956676889022</v>
+        <v>0.01032061657828303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.132938180986022</v>
+        <v>0.1274533368954952</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -11584,16 +11584,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3295</v>
+        <v>3460</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.00940524207382382</v>
+        <v>0.009405242073823823</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0327139280117754</v>
+        <v>0.03434785617104857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -11602,19 +11602,19 @@
         <v>2657</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6014</v>
+        <v>6192</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01909459785125035</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006949586272858459</v>
+        <v>0.005748317037680101</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04321166585348803</v>
+        <v>0.04449517171385086</v>
       </c>
     </row>
     <row r="15">
@@ -11631,19 +11631,19 @@
         <v>9844</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5651</v>
+        <v>6031</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14334</v>
+        <v>14730</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2561194615066554</v>
+        <v>0.2561194615066553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1470206583934452</v>
+        <v>0.1569106601516917</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3729165633338581</v>
+        <v>0.3832259037712875</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>52</v>
@@ -11652,19 +11652,19 @@
         <v>25516</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19715</v>
+        <v>19807</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>32837</v>
+        <v>32181</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2533200700644084</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1957288934566004</v>
+        <v>0.1966443281577009</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3260006169811649</v>
+        <v>0.3194836472766548</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>67</v>
@@ -11673,19 +11673,19 @@
         <v>35361</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>28066</v>
+        <v>27956</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>43849</v>
+        <v>43133</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2540932631003013</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2016787936483809</v>
+        <v>0.2008869772023727</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3150893957695832</v>
+        <v>0.3099404929593644</v>
       </c>
     </row>
     <row r="16">
@@ -11705,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1819</v>
+        <v>1776</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00890241090607255</v>
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04731353358080716</v>
+        <v>0.0461953912808393</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1705</v>
+        <v>1747</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002458849452546675</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01225245354233049</v>
+        <v>0.01255288957062883</v>
       </c>
     </row>
     <row r="17">
@@ -11765,19 +11765,19 @@
         <v>20033</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15447</v>
+        <v>15494</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25342</v>
+        <v>24874</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5211979594183234</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4018695860568128</v>
+        <v>0.4030917596477561</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6593165605132286</v>
+        <v>0.6471274069981138</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>122</v>
@@ -11786,19 +11786,19 @@
         <v>61932</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>54541</v>
+        <v>55387</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68850</v>
+        <v>69596</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6148519965717267</v>
+        <v>0.6148519965717268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5414769995018867</v>
+        <v>0.5498714549007198</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6835270890788594</v>
+        <v>0.6909403120721053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>155</v>
@@ -11807,19 +11807,19 @@
         <v>81965</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73468</v>
+        <v>73677</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>90362</v>
+        <v>90246</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5889847140554421</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5279216176516872</v>
+        <v>0.5294221434551843</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6493173151858441</v>
+        <v>0.6484834895558664</v>
       </c>
     </row>
     <row r="18">
@@ -11836,19 +11836,19 @@
         <v>4406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1811</v>
+        <v>1788</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7929</v>
+        <v>8835</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1146167211374638</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04711518943230355</v>
+        <v>0.04651385496119502</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2062805490003512</v>
+        <v>0.2298520250617772</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -11857,19 +11857,19 @@
         <v>17549</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12224</v>
+        <v>12376</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23828</v>
+        <v>23896</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1742270117601118</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1213539160588394</v>
+        <v>0.1228668296083688</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2365565102870177</v>
+        <v>0.237233434929594</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>40</v>
@@ -11878,19 +11878,19 @@
         <v>21955</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16639</v>
+        <v>15833</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28701</v>
+        <v>28633</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1577626256505394</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1195673410166952</v>
+        <v>0.1137739299441748</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2062358960861171</v>
+        <v>0.2057521195987225</v>
       </c>
     </row>
     <row r="19">
@@ -11907,19 +11907,19 @@
         <v>3354</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1338</v>
+        <v>1221</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7640</v>
+        <v>7151</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08726082749716185</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03480694962526505</v>
+        <v>0.03176557950291861</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1987714648133982</v>
+        <v>0.1860464658736148</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -11928,19 +11928,19 @@
         <v>5281</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2716</v>
+        <v>2829</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8771</v>
+        <v>8784</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05243342691428374</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02696429540771812</v>
+        <v>0.02808885654570683</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08707881669871329</v>
+        <v>0.08720917533770124</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -11949,19 +11949,19 @@
         <v>8636</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5014</v>
+        <v>5025</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13640</v>
+        <v>14006</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06205276888359451</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03602895658617489</v>
+        <v>0.03611119347580729</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09801665625630231</v>
+        <v>0.1006458266744033</v>
       </c>
     </row>
     <row r="20">
@@ -11994,16 +11994,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2856</v>
+        <v>2826</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.006060642576353905</v>
+        <v>0.006060642576353907</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02835011420875463</v>
+        <v>0.02805187949384907</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3437</v>
+        <v>3476</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004386690672967407</v>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02469710204291721</v>
+        <v>0.02498048985521948</v>
       </c>
     </row>
     <row r="21">
@@ -12041,19 +12041,19 @@
         <v>11143</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7022</v>
+        <v>7180</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15979</v>
+        <v>16136</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2899001792600357</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1827003472609876</v>
+        <v>0.1868061281517382</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.415714883752028</v>
+        <v>0.4198086428214323</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>35</v>
@@ -12062,19 +12062,19 @@
         <v>18583</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13327</v>
+        <v>12921</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24646</v>
+        <v>24316</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.18448912032103</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1323040369785544</v>
+        <v>0.1282795735675235</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.244685037654552</v>
+        <v>0.2414062470658982</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -12083,19 +12083,19 @@
         <v>29726</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>23344</v>
+        <v>23072</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37621</v>
+        <v>37478</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2136036969564153</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1677476168517508</v>
+        <v>0.1657934478280674</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2703328864851702</v>
+        <v>0.269308597654268</v>
       </c>
     </row>
     <row r="22">
@@ -12112,19 +12112,19 @@
         <v>5983</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2964</v>
+        <v>2912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10454</v>
+        <v>10507</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.155648384150636</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.077120066591873</v>
+        <v>0.07577164035603542</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2719785912927375</v>
+        <v>0.2733624381335986</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -12133,19 +12133,19 @@
         <v>15942</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10840</v>
+        <v>11051</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22047</v>
+        <v>21784</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1582647717409228</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1076215784815288</v>
+        <v>0.1097111708626911</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2188820178254549</v>
+        <v>0.2162665571544712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -12154,19 +12154,19 @@
         <v>21924</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16109</v>
+        <v>16215</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28976</v>
+        <v>29597</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1575421244421289</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.115756008633223</v>
+        <v>0.1165140181058613</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2082172198124062</v>
+        <v>0.2126779114177485</v>
       </c>
     </row>
     <row r="23">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4401</v>
+        <v>4589</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04001595899272858</v>
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1900886454943402</v>
+        <v>0.1981900252139781</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -12255,19 +12255,19 @@
         <v>4250</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1771</v>
+        <v>1919</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7747</v>
+        <v>8148</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07368731233834507</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0307123662687146</v>
+        <v>0.03327326349544316</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1343187615046962</v>
+        <v>0.1412788029032778</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -12276,19 +12276,19 @@
         <v>5176</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2357</v>
+        <v>2259</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10042</v>
+        <v>9413</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06404237912441559</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02915472697263863</v>
+        <v>0.02795184259956287</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1242343149353144</v>
+        <v>0.1164525619943786</v>
       </c>
     </row>
     <row r="25">
@@ -12305,19 +12305,19 @@
         <v>6179</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2924</v>
+        <v>3189</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10118</v>
+        <v>10526</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2668737428149549</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1263083721736651</v>
+        <v>0.1377179621628097</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4369872481227</v>
+        <v>0.454634676315243</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -12326,19 +12326,19 @@
         <v>17264</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12160</v>
+        <v>11857</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22875</v>
+        <v>22882</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2993220589466583</v>
+        <v>0.2993220589466584</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2108287763836906</v>
+        <v>0.2055856975500547</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3966035834108406</v>
+        <v>0.3967396958839468</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -12347,19 +12347,19 @@
         <v>23443</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17318</v>
+        <v>17218</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30329</v>
+        <v>30433</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2900274565354519</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2142524316945557</v>
+        <v>0.2130136389645858</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3752201092782568</v>
+        <v>0.3765049704763291</v>
       </c>
     </row>
     <row r="26">
@@ -12392,16 +12392,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4137</v>
+        <v>4064</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02290976466787742</v>
+        <v>0.02290976466787743</v>
       </c>
       <c r="O26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0717302282948786</v>
+        <v>0.07046302071096296</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -12413,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4598</v>
+        <v>3984</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01634741631494777</v>
@@ -12422,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05688368979043155</v>
+        <v>0.04929194639229706</v>
       </c>
     </row>
     <row r="27">
@@ -12439,19 +12439,19 @@
         <v>13024</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8989</v>
+        <v>9037</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16436</v>
+        <v>16456</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5625306901606337</v>
+        <v>0.5625306901606338</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3882605946900497</v>
+        <v>0.3902965956437073</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7098924370781561</v>
+        <v>0.7107497484908649</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>60</v>
@@ -12460,19 +12460,19 @@
         <v>33237</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>27510</v>
+        <v>27764</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>38754</v>
+        <v>39052</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.576277119355284</v>
+        <v>0.5762771193552841</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4769737204426407</v>
+        <v>0.4813749751134177</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6719226033990024</v>
+        <v>0.6770895723741324</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>81</v>
@@ -12481,19 +12481,19 @@
         <v>46262</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>39152</v>
+        <v>38899</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>52268</v>
+        <v>52869</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5723395469580145</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4843836020100378</v>
+        <v>0.4812560391503914</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6466546469703252</v>
+        <v>0.6540899140061494</v>
       </c>
     </row>
     <row r="28">
@@ -12510,19 +12510,19 @@
         <v>3433</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1350</v>
+        <v>1421</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7014</v>
+        <v>6899</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1482917043864126</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05832477576731947</v>
+        <v>0.06135412267969821</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3029437038929925</v>
+        <v>0.2979617222035187</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -12531,19 +12531,19 @@
         <v>13891</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9575</v>
+        <v>9516</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19224</v>
+        <v>18916</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2408453528974275</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.166017459839266</v>
+        <v>0.1649902049016696</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3333064719985889</v>
+        <v>0.327972856184538</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>30</v>
@@ -12552,19 +12552,19 @@
         <v>17324</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12246</v>
+        <v>11776</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>23663</v>
+        <v>24132</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.214333981363546</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1515079312451033</v>
+        <v>0.1456877950664872</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2927562097982269</v>
+        <v>0.2985577294873683</v>
       </c>
     </row>
     <row r="29">
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3025</v>
+        <v>2203</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02149174748511309</v>
@@ -12593,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1306659920642937</v>
+        <v>0.09516439908930091</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4509</v>
+        <v>4743</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02316963860893067</v>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07817801650880771</v>
+        <v>0.08223262722328296</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -12623,19 +12623,19 @@
         <v>1834</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4881</v>
+        <v>4981</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02268901795601674</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006217233516400558</v>
+        <v>0.006131415771666808</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06038431688479114</v>
+        <v>0.06162604261040069</v>
       </c>
     </row>
     <row r="30">
@@ -12699,19 +12699,19 @@
         <v>7240</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3876</v>
+        <v>4023</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10907</v>
+        <v>11348</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3127003167551698</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1674149166051481</v>
+        <v>0.1737521184215814</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4710905446249725</v>
+        <v>0.4901459064286928</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -12720,19 +12720,19 @@
         <v>8716</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5557</v>
+        <v>5039</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13100</v>
+        <v>13440</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1511163289655592</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09635437657040148</v>
+        <v>0.0873667518056578</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2271355469522594</v>
+        <v>0.2330323638942671</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -12741,19 +12741,19 @@
         <v>15956</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11019</v>
+        <v>10941</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>22205</v>
+        <v>22128</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1974009779570758</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1363219548032949</v>
+        <v>0.1353624379026322</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2747200770337343</v>
+        <v>0.2737572699014068</v>
       </c>
     </row>
     <row r="32">
@@ -12770,19 +12770,19 @@
         <v>3216</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1300</v>
+        <v>1272</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5709</v>
+        <v>6430</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.138914104406116</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05614985452208315</v>
+        <v>0.05494967688459659</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2465684143823029</v>
+        <v>0.2777207991461991</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -12791,19 +12791,19 @@
         <v>10233</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5981</v>
+        <v>6527</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14794</v>
+        <v>15372</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1774279824138267</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1036932473536622</v>
+        <v>0.1131676186236287</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2565063995495519</v>
+        <v>0.2665173830237296</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>27</v>
@@ -12812,19 +12812,19 @@
         <v>13450</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8523</v>
+        <v>9266</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19046</v>
+        <v>19017</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.166395940506246</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1054435121637868</v>
+        <v>0.1146365192877479</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2356274000675894</v>
+        <v>0.2352741126285406</v>
       </c>
     </row>
     <row r="33">
@@ -12895,16 +12895,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5400</v>
+        <v>4180</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.06380584365024007</v>
+        <v>0.06380584365024006</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.244686920630842</v>
+        <v>0.1894070192992754</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -12916,16 +12916,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3863</v>
+        <v>3953</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.02988365808890896</v>
+        <v>0.02988365808890895</v>
       </c>
       <c r="O34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09328396412846879</v>
+        <v>0.09547165754503585</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -12934,19 +12934,19 @@
         <v>2646</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6393</v>
+        <v>6996</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04167717295147962</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009354715057819572</v>
+        <v>0.009140672728742028</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1007176342045478</v>
+        <v>0.1102136833740629</v>
       </c>
     </row>
     <row r="35">
@@ -12963,19 +12963,19 @@
         <v>3552</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1047</v>
+        <v>1088</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6925</v>
+        <v>7357</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1609288457514191</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0474482400869226</v>
+        <v>0.04930293226092122</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3137779801891961</v>
+        <v>0.3333548067843108</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>20</v>
@@ -12984,19 +12984,19 @@
         <v>9631</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6155</v>
+        <v>5993</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>14367</v>
+        <v>13828</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.2325906033806492</v>
+        <v>0.2325906033806491</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.148649788406889</v>
+        <v>0.1447289715586154</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3469586433644495</v>
+        <v>0.3339276780181032</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>25</v>
@@ -13005,19 +13005,19 @@
         <v>13183</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>9097</v>
+        <v>8609</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18775</v>
+        <v>19059</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2076764066774253</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1433115231267541</v>
+        <v>0.1356170310052752</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2957737478176514</v>
+        <v>0.30025426289796</v>
       </c>
     </row>
     <row r="36">
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2301</v>
+        <v>2421</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01124535448113933</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0555572868600866</v>
+        <v>0.05847471651459609</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.007335752165910786</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04281589736644723</v>
+        <v>0.04279956920097235</v>
       </c>
     </row>
     <row r="37">
@@ -13097,19 +13097,19 @@
         <v>8671</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5075</v>
+        <v>4911</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12414</v>
+        <v>12306</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.3928953399795063</v>
+        <v>0.3928953399795062</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2299795915724476</v>
+        <v>0.2225224445210364</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5625081635587452</v>
+        <v>0.5576125560697249</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>34</v>
@@ -13118,19 +13118,19 @@
         <v>17789</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13557</v>
+        <v>12803</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>22947</v>
+        <v>22399</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4295822617114562</v>
+        <v>0.4295822617114561</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3273812317809645</v>
+        <v>0.3091885413972047</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5541485384807324</v>
+        <v>0.5409107152650959</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>48</v>
@@ -13139,19 +13139,19 @@
         <v>26459</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20610</v>
+        <v>20393</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32603</v>
+        <v>32658</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.4168275482533432</v>
+        <v>0.4168275482533431</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3246847620387829</v>
+        <v>0.321268019056194</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.513624969608237</v>
+        <v>0.5144779175595867</v>
       </c>
     </row>
     <row r="38">
@@ -13168,19 +13168,19 @@
         <v>3350</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>919</v>
+        <v>842</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7047</v>
+        <v>6788</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1518056284224008</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04163106405075372</v>
+        <v>0.03813146262071045</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.319311143075366</v>
+        <v>0.3075596520329867</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>17</v>
@@ -13189,19 +13189,19 @@
         <v>8994</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5588</v>
+        <v>5391</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>13685</v>
+        <v>13671</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2172026159041657</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1349489616055349</v>
+        <v>0.1301796479670436</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3304765677063075</v>
+        <v>0.3301523539060479</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>21</v>
@@ -13210,19 +13210,19 @@
         <v>12344</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>8251</v>
+        <v>7908</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>17833</v>
+        <v>18153</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1944664527981916</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1299905047288827</v>
+        <v>0.1245845812576113</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2809404338601196</v>
+        <v>0.2859775849590485</v>
       </c>
     </row>
     <row r="39">
@@ -13242,16 +13242,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>3321</v>
+        <v>3838</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.0477747305019844</v>
+        <v>0.04777473050198439</v>
       </c>
       <c r="H39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1504710488883621</v>
+        <v>0.1739102544532994</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2</v>
@@ -13263,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>3380</v>
+        <v>3455</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02372116538492173</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.08163473000458042</v>
+        <v>0.08343608015131447</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>4</v>
@@ -13281,19 +13281,19 @@
         <v>2037</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>4673</v>
+        <v>5142</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0320837184755239</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.008058329889134628</v>
+        <v>0.009384760774426465</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.07360963177190286</v>
+        <v>0.0810110433046215</v>
       </c>
     </row>
     <row r="40">
@@ -13313,16 +13313,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3626</v>
+        <v>3565</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.02933993866166804</v>
+        <v>0.02933993866166803</v>
       </c>
       <c r="H40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1642866219502502</v>
+        <v>0.1615220912374181</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2274</v>
+        <v>2209</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01046278594610291</v>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0549202345960007</v>
+        <v>0.05333604844617709</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3573</v>
+        <v>3881</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01702568799472013</v>
@@ -13364,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05629542273000617</v>
+        <v>0.0611368005716191</v>
       </c>
     </row>
     <row r="41">
@@ -13381,19 +13381,19 @@
         <v>9269</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5617</v>
+        <v>5378</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13209</v>
+        <v>12904</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4200036727885066</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2545161808089239</v>
+        <v>0.2437110567383655</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5985465441442274</v>
+        <v>0.5846951433456627</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>12</v>
@@ -13402,19 +13402,19 @@
         <v>7158</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3947</v>
+        <v>3885</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11392</v>
+        <v>11600</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.1728550468352202</v>
+        <v>0.1728550468352201</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0953122818203482</v>
+        <v>0.09382331940121033</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2751000994586897</v>
+        <v>0.2801352778661509</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>25</v>
@@ -13423,19 +13423,19 @@
         <v>16427</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>11174</v>
+        <v>11389</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>22258</v>
+        <v>22702</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2587796694741167</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1760276342637023</v>
+        <v>0.1794233173957434</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3506400730468132</v>
+        <v>0.3576486044314274</v>
       </c>
     </row>
     <row r="42">
@@ -13452,19 +13452,19 @@
         <v>1929</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>480</v>
+        <v>577</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4611</v>
+        <v>4670</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.08741012210785983</v>
+        <v>0.08741012210785981</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02176851178964582</v>
+        <v>0.02613067498144914</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2089353351270582</v>
+        <v>0.2116198349683373</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>17</v>
@@ -13473,19 +13473,19 @@
         <v>9907</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>6101</v>
+        <v>6098</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>15301</v>
+        <v>15135</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2392358990844929</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1473278408815705</v>
+        <v>0.1472712892109489</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3695066450876862</v>
+        <v>0.3654932059802131</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>21</v>
@@ -13494,19 +13494,19 @@
         <v>11835</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>7211</v>
+        <v>7556</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>17646</v>
+        <v>18160</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.186451577329695</v>
+        <v>0.1864515773296949</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1136062411558237</v>
+        <v>0.1190386779568714</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2779879605426191</v>
+        <v>0.2860937093757852</v>
       </c>
     </row>
     <row r="43">
@@ -13574,19 +13574,19 @@
         <v>4045</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1505</v>
+        <v>1343</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8889</v>
+        <v>8577</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03725064001981527</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01385945346027956</v>
+        <v>0.01236858423801795</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08186678863477623</v>
+        <v>0.07899752120273411</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>16</v>
@@ -13595,19 +13595,19 @@
         <v>9571</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5386</v>
+        <v>5615</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14973</v>
+        <v>14897</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03520015615316922</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01980781374395407</v>
+        <v>0.02065214060029703</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05507000514279119</v>
+        <v>0.05479125767246214</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>22</v>
@@ -13616,19 +13616,19 @@
         <v>13615</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>8892</v>
+        <v>8867</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>20163</v>
+        <v>20198</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03578530911832568</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02337044102823022</v>
+        <v>0.02330408143724237</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0529955485820928</v>
+        <v>0.05308824067118617</v>
       </c>
     </row>
     <row r="45">
@@ -13645,19 +13645,19 @@
         <v>23480</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>16963</v>
+        <v>17191</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>31158</v>
+        <v>31333</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2162579602402793</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1562361538393017</v>
+        <v>0.1583329856122781</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2869673537276235</v>
+        <v>0.2885784679655694</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>145</v>
@@ -13666,19 +13666,19 @@
         <v>74149</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>62925</v>
+        <v>63669</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>84655</v>
+        <v>85512</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.2727116073589609</v>
+        <v>0.2727116073589608</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2314322409791228</v>
+        <v>0.2341690029156205</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3113544457847743</v>
+        <v>0.3145044078606343</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>181</v>
@@ -13687,19 +13687,19 @@
         <v>97629</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>84926</v>
+        <v>85219</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>111089</v>
+        <v>110236</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2566012543136446</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2232124950006384</v>
+        <v>0.223983340776347</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2919777100522749</v>
+        <v>0.2897357422373411</v>
       </c>
     </row>
     <row r="46">
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>3992</v>
+        <v>3438</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.009510943641865922</v>
@@ -13728,7 +13728,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03676427017755933</v>
+        <v>0.03166371045422879</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -13737,19 +13737,19 @@
         <v>1787</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>5395</v>
+        <v>5028</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.006572405599645463</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001683214669668572</v>
+        <v>0.001704384313328247</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01984383810598293</v>
+        <v>0.01849411177361502</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>5</v>
@@ -13758,19 +13758,19 @@
         <v>2820</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1042</v>
+        <v>1096</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>6288</v>
+        <v>6460</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.007410985349820686</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002737480771762305</v>
+        <v>0.002879731396329721</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01652816723225837</v>
+        <v>0.01697910318841388</v>
       </c>
     </row>
     <row r="47">
@@ -13787,19 +13787,19 @@
         <v>53787</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>44946</v>
+        <v>44837</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>62045</v>
+        <v>62481</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.4953820281619114</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.4139546664433064</v>
+        <v>0.41295069601322</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.5714460888680083</v>
+        <v>0.5754556056541611</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>283</v>
@@ -13808,19 +13808,19 @@
         <v>149963</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>137969</v>
+        <v>136936</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>162406</v>
+        <v>161551</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.5515501801785776</v>
+        <v>0.5515501801785774</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5074384125615263</v>
+        <v>0.5036360198743761</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5973148220284061</v>
+        <v>0.594169193571402</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>368</v>
@@ -13829,19 +13829,19 @@
         <v>203750</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>190595</v>
+        <v>188549</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>218546</v>
+        <v>218868</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.5355212997594053</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.5009460351361718</v>
+        <v>0.4955679676589408</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5744115869814223</v>
+        <v>0.5752559440034577</v>
       </c>
     </row>
     <row r="48">
@@ -13858,19 +13858,19 @@
         <v>14260</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>9070</v>
+        <v>9002</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>21067</v>
+        <v>21552</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1313411637542455</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.08353435566703295</v>
+        <v>0.08290542847681764</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1940280290671074</v>
+        <v>0.1985000221308302</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>105</v>
@@ -13879,19 +13879,19 @@
         <v>58680</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>49278</v>
+        <v>49172</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>69193</v>
+        <v>69817</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.215817943119242</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.181240006505877</v>
+        <v>0.1808517130799051</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2544852402039191</v>
+        <v>0.2567795997513733</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>126</v>
@@ -13900,19 +13900,19 @@
         <v>72940</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>61275</v>
+        <v>61790</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>85118</v>
+        <v>86532</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1917105415754537</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1610504429188371</v>
+        <v>0.1624032136353335</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2237180628145727</v>
+        <v>0.227434690330643</v>
       </c>
     </row>
     <row r="49">
@@ -13929,19 +13929,19 @@
         <v>5947</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05476840324354136</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02761352842248453</v>
+        <v>0.02796490807814715</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1029564199007272</v>
+        <v>0.09412675434669396</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>25</v>
@@ -13950,19 +13950,19 @@
         <v>12697</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>8605</v>
+        <v>8178</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>18630</v>
+        <v>18494</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.04669827065404174</v>
+        <v>0.04669827065404173</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.03164771097848058</v>
+        <v>0.03007768011472727</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0685184321859727</v>
+        <v>0.06801772027426038</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>35</v>
@@ -13971,19 +13971,19 @@
         <v>18644</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>13500</v>
+        <v>13310</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>25249</v>
+        <v>26231</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.04900126951726891</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.03548261686766202</v>
+        <v>0.03498422990808394</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.0663634899299312</v>
+        <v>0.06894353856329233</v>
       </c>
     </row>
     <row r="50">
@@ -14003,7 +14003,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>3223</v>
+        <v>3288</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.005963538338885629</v>
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02968872618746502</v>
+        <v>0.0302787203239714</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>4</v>
@@ -14021,19 +14021,19 @@
         <v>2460</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>819</v>
+        <v>780</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>6192</v>
+        <v>6669</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.009047878388738089</v>
+        <v>0.009047878388738087</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.00301116985915148</v>
+        <v>0.002869215470903744</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02277240200479692</v>
+        <v>0.02452857639002236</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>5</v>
@@ -14042,19 +14042,19 @@
         <v>3108</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1081</v>
+        <v>1055</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>7960</v>
+        <v>7925</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.008167690665693913</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.002841676979685899</v>
+        <v>0.00277234969561549</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02092191910938086</v>
+        <v>0.02082906812971435</v>
       </c>
     </row>
     <row r="51">
@@ -14071,19 +14071,19 @@
         <v>39743</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>31292</v>
+        <v>31924</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>48005</v>
+        <v>47925</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.3660426200363449</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2882034640851892</v>
+        <v>0.2940285033285617</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4421319111288348</v>
+        <v>0.441398832475243</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>75</v>
@@ -14092,19 +14092,19 @@
         <v>40663</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>32674</v>
+        <v>32512</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>49350</v>
+        <v>49814</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.1495555647901396</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.1201722021762422</v>
+        <v>0.1195749215942485</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.181503335047885</v>
+        <v>0.1832121377950106</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>135</v>
@@ -14113,19 +14113,19 @@
         <v>80407</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>68926</v>
+        <v>68728</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>92947</v>
+        <v>92611</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2113351497729338</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1811603055481519</v>
+        <v>0.1806399244538626</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.2442955717135997</v>
+        <v>0.2434132306153196</v>
       </c>
     </row>
     <row r="52">
@@ -14142,19 +14142,19 @@
         <v>16095</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>10759</v>
+        <v>10571</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>22895</v>
+        <v>23060</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.1482351596738313</v>
+        <v>0.1482351596738314</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.09909327364845297</v>
+        <v>0.09736265146777222</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2108698350659924</v>
+        <v>0.2123886264706817</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>89</v>
@@ -14163,19 +14163,19 @@
         <v>48600</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>39574</v>
+        <v>39925</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>58629</v>
+        <v>58295</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1787466680706244</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1455491114972693</v>
+        <v>0.1468387542697332</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2156312389668158</v>
+        <v>0.2144022817289166</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>115</v>
@@ -14184,19 +14184,19 @@
         <v>64695</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>54128</v>
+        <v>54662</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>77931</v>
+        <v>76590</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1700395039225918</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1422672829914965</v>
+        <v>0.1436706144248304</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2048288759139423</v>
+        <v>0.201304692480691</v>
       </c>
     </row>
     <row r="53">
